--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{D3F6141B-C4F3-504C-9313-6A7C5B7B0D35}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="11980" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="11980"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="502">
   <si>
     <t>description</t>
   </si>
@@ -1567,6 +1567,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1577,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1751,8 +1754,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1924,8 +2021,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2245,6 +2495,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2252,7 +2784,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2393,49 +2925,94 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2820,9 +3397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4032,7 +4609,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54">
@@ -4040,7 +4617,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -4048,7 +4625,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -4056,7 +4633,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -4064,7 +4641,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -4072,7 +4649,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -4080,7 +4657,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -4088,7 +4665,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -4096,7 +4673,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62">
@@ -4104,7 +4681,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -4112,7 +4689,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -4120,7 +4697,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65">
@@ -4128,7 +4705,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -4136,7 +4713,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -4144,7 +4721,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -4152,7 +4729,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -4160,7 +4737,7 @@
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -4168,7 +4745,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>457</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -4176,7 +4753,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72">
@@ -4184,7 +4761,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -4192,7 +4769,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -4200,7 +4777,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -4208,7 +4785,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -4216,7 +4793,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -4224,7 +4801,7 @@
         <v>430</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -4232,7 +4809,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -4240,7 +4817,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80">
@@ -4248,7 +4825,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -4256,7 +4833,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -4264,7 +4841,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -4272,7 +4849,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -4280,7 +4857,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -4288,7 +4865,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86">
@@ -4296,7 +4873,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87">
@@ -4304,7 +4881,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -4312,7 +4889,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -4320,7 +4897,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -4328,7 +4905,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -4336,7 +4913,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -4344,126 +4921,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4476,7 +5058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16187,7 +16769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96146A54-13CA-A64D-8603-D948CB7CC707}">
   <dimension ref="A1:P1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="502">
   <si>
     <t>description</t>
   </si>
@@ -1577,7 +1577,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1848,8 +1848,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2174,8 +2268,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2777,6 +3024,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2784,7 +3313,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2970,49 +3499,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -20,36 +20,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1570,6 +1571,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1593,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1942,8 +1958,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2421,8 +2538,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3306,6 +3576,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3313,7 +3865,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3544,49 +4096,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3971,7 +4571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3990,75 +4590,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>413</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>414</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>415</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4070,1556 +4673,1571 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>453</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>436</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>418</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>399</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>420</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>421</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>408</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>433</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" t="s">
         <v>499</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>432</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>400</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>422</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>409</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>454</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>401</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>423</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>425</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>500</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>434</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>458</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>505</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>402</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>424</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>426</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>451</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>403</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>446</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>427</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>448</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>419</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>404</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>447</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>428</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>405</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>429</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>406</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>455</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>438</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>407</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>437</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>459</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>459</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D18" t="s">
         <v>416</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>393</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>393</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>435</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>435</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>415</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>452</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>417</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>430</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1586,6 +1586,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1599,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2059,8 +2065,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2691,8 +2798,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3858,6 +4118,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3865,7 +4407,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4141,52 +4683,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4571,7 +5161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4673,7 +5263,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -5785,7 +6375,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52">
@@ -5793,7 +6383,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -5801,7 +6391,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>501</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -5809,7 +6399,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55">
@@ -5817,7 +6407,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -5825,7 +6415,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -5833,7 +6423,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -5841,7 +6431,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -5849,7 +6439,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -5857,7 +6447,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -5865,7 +6455,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -5873,7 +6463,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63">
@@ -5881,7 +6471,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -5889,7 +6479,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -5897,7 +6487,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66">
@@ -5905,7 +6495,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -5913,7 +6503,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -5921,7 +6511,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -5929,7 +6519,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -5937,7 +6527,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -5945,7 +6535,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>457</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -5953,7 +6543,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73">
@@ -5961,7 +6551,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -5969,7 +6559,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -5977,7 +6567,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -5985,7 +6575,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -5993,7 +6583,7 @@
         <v>430</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -6001,7 +6591,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -6009,7 +6599,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -6017,7 +6607,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81">
@@ -6025,7 +6615,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -6033,7 +6623,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -6041,7 +6631,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -6049,7 +6639,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -6057,7 +6647,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -6065,7 +6655,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87">
@@ -6073,7 +6663,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88">
@@ -6081,7 +6671,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -6089,7 +6679,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -6097,7 +6687,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -6105,7 +6695,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -6113,131 +6703,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4617" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1592,6 +1592,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="137" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2166,8 +2175,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2951,8 +3263,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4400,6 +5171,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4407,7 +6024,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4731,52 +6348,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="92" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="107" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="108" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="111" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5281,7 +7042,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>511</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -5364,7 +7125,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -5435,7 +7196,7 @@
         <v>454</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -5506,7 +7267,7 @@
         <v>458</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>505</v>
@@ -5566,6 +7327,9 @@
       </c>
       <c r="G6" t="s">
         <v>451</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4617" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1601,6 +1601,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1620,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="137" x14ac:knownFonts="1">
+  <fonts count="185" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2478,8 +2490,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3722,8 +4037,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6017,6 +6791,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6024,7 +7644,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6492,52 +8112,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="124" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="139" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="140" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="156" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6922,7 +8686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7790,7 +9554,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -7807,7 +9571,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -7824,7 +9588,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -7841,7 +9605,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -7858,7 +9622,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -7875,7 +9639,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -7891,6 +9655,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -7925,7 +9692,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -7936,7 +9703,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>514</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -7947,7 +9714,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -7958,7 +9725,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -7969,7 +9736,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -7980,7 +9747,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -7991,7 +9758,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -8002,7 +9769,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -8013,7 +9780,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -8023,6 +9790,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -8031,6 +9801,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -8315,7 +10088,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74">
@@ -8323,7 +10096,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -8331,7 +10104,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -8339,7 +10112,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -8347,7 +10120,7 @@
         <v>430</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -8355,7 +10128,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -8363,7 +10136,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -8371,7 +10144,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -8379,7 +10152,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82">
@@ -8387,7 +10160,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -8395,7 +10168,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -8403,7 +10176,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -8411,7 +10184,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -8419,7 +10192,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -8427,7 +10200,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88">
@@ -8435,7 +10208,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89">
@@ -8443,7 +10216,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -8451,7 +10224,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -8459,7 +10232,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -8467,136 +10240,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{2C87A27E-9C7B-7449-9255-D11C04FB3EB7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="11980" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="11980"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1607,6 +1607,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1798,8 +1807,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1971,8 +2081,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2292,6 +2555,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2299,7 +2844,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2440,52 +2985,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2870,9 +3463,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3469,7 +4062,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10">
@@ -3507,7 +4100,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11">
@@ -3542,7 +4135,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -3576,6 +4169,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3608,6 +4204,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4198,7 +4797,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64">
@@ -4206,7 +4805,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -4214,7 +4813,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -4222,7 +4821,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67">
@@ -4230,7 +4829,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -4238,7 +4837,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -4246,7 +4845,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -4254,7 +4853,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -4262,7 +4861,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -4270,7 +4869,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>457</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -4278,7 +4877,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74">
@@ -4286,7 +4885,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
@@ -4294,7 +4893,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -4302,7 +4901,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -4310,7 +4909,7 @@
         <v>430</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -4318,7 +4917,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -4326,7 +4925,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -4334,7 +4933,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -4342,7 +4941,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -4350,7 +4949,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83">
@@ -4358,7 +4957,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -4366,7 +4965,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -4374,7 +4973,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -4382,7 +4981,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -4390,7 +4989,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -4398,7 +4997,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89">
@@ -4406,7 +5005,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90">
@@ -4414,7 +5013,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -4422,7 +5021,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -4430,141 +5029,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>
@@ -16263,7 +16867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96146A54-13CA-A64D-8603-D948CB7CC707}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -27950,7 +28554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4BF323-0F08-994E-A9DA-5DC6D7B4BEE6}">
   <dimension ref="A1:P1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -27,30 +27,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1616,6 +1617,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1908,8 +1936,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2234,8 +2363,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2837,6 +3119,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2844,7 +3408,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3033,52 +3597,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3463,7 +4075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3512,48 +4124,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>517</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>413</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>414</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>398</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>415</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3595,48 +4210,51 @@
         <v>436</v>
       </c>
       <c r="M2" t="s">
+        <v>520</v>
+      </c>
+      <c r="N2" t="s">
         <v>418</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>431</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>399</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>420</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>421</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>433</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3663,7 +4281,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>518</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -3677,43 +4295,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" t="s">
         <v>432</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>400</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>422</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3736,6 +4357,9 @@
       <c r="G4" t="s">
         <v>454</v>
       </c>
+      <c r="H4" t="s">
+        <v>519</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -3748,43 +4372,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>522</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>401</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>423</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>425</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3816,40 +4443,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>402</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>424</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>426</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3878,37 +4505,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>403</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>446</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3934,37 +4561,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>419</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>404</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>447</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>428</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3990,34 +4617,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>405</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>429</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4043,25 +4670,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>406</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>515</v>
       </c>
     </row>
@@ -4084,22 +4711,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>438</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>407</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4122,19 +4749,19 @@
       <c r="L11" t="s">
         <v>512</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4157,25 +4784,25 @@
       <c r="L12" t="s">
         <v>437</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>517</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -4192,25 +4819,25 @@
       <c r="L13" t="s">
         <v>513</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -4227,22 +4854,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -4256,22 +4883,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -4285,19 +4912,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -4308,16 +4935,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>416</v>
@@ -4328,13 +4955,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -4345,13 +4972,13 @@
       <c r="J19" t="s">
         <v>511</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -4362,13 +4989,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -4379,13 +5006,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -4396,13 +5023,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -4413,13 +5040,13 @@
       <c r="J23" t="s">
         <v>435</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -4430,13 +5057,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>452</v>
@@ -4447,13 +5074,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -4461,13 +5088,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -4475,18 +5102,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>509</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4497,7 +5127,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4508,7 +5138,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4519,7 +5149,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4530,7 +5160,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4541,7 +5171,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4552,7 +5182,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4563,7 +5193,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4574,7 +5204,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4585,7 +5215,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4596,7 +5226,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4604,7 +5234,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4612,7 +5242,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4620,7 +5250,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4628,7 +5258,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4636,7 +5266,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4644,7 +5274,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4652,7 +5282,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4660,7 +5290,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4668,7 +5298,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4676,7 +5306,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4684,7 +5314,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4692,7 +5322,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4700,475 +5330,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>506</v>
+      <c r="W51" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>500</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>441</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>514</v>
+      <c r="W63" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>442</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>457</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>508</v>
+      <c r="W74" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>430</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>456</v>
+      <c r="W82" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>443</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>444</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1651,7 +1651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2037,8 +2037,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2516,8 +2617,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3401,6 +3655,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3408,7 +3944,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,52 +4181,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -21,37 +21,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1644,6 +1645,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1682,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2138,8 +2169,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2770,8 +3003,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3937,6 +4476,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3944,7 +5047,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4229,52 +5332,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4659,7 +5858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4681,78 +5880,81 @@
         <v>501</v>
       </c>
       <c r="D1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>517</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>397</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>413</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>414</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>415</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4767,79 +5969,82 @@
         <v>505</v>
       </c>
       <c r="D2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>453</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>507</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>520</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>418</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>431</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>399</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>420</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>421</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>433</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="3">
@@ -4853,1546 +6058,1573 @@
         <v>502</v>
       </c>
       <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" t="s">
         <v>498</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>518</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>521</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>432</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>400</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>422</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>454</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>519</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>522</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>401</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>423</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>425</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" t="s">
         <v>499</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>434</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>458</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>503</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>402</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>424</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>426</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>451</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>403</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>446</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>427</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>419</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>404</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>447</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>428</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>405</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>429</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>406</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>515</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>455</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>438</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>407</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>516</v>
+      <c r="AC10" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>512</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>437</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>513</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>459</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>504</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>416</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>511</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>435</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>452</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" t="s">
+        <v>509</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>509</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>510</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>417</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>411</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>412</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>430</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1675,6 +1675,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1694,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2371,8 +2383,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3309,8 +3422,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -5040,6 +5306,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5047,7 +5595,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5428,52 +5976,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5858,7 +6454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6630,7 +7226,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14">
@@ -6665,7 +7261,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -6697,7 +7293,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16">
@@ -6726,7 +7322,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17">
@@ -6749,7 +7345,7 @@
         <v>504</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18">
@@ -6769,7 +7365,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19">
@@ -6788,6 +7384,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -6805,6 +7404,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -6822,6 +7424,9 @@
       <c r="X21" t="s">
         <v>523</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -7371,7 +7976,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80">
@@ -7379,7 +7984,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -7387,7 +7992,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -7395,7 +8000,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>525</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -7403,7 +8008,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84">
@@ -7411,7 +8016,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -7419,7 +8024,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86">
@@ -7427,7 +8032,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -7435,7 +8040,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -7443,7 +8048,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -7451,7 +8056,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -7459,7 +8064,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -7467,7 +8072,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92">
@@ -7475,156 +8080,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -36,7 +36,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1687,6 +1687,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1703,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2484,8 +2493,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3575,8 +3786,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5588,6 +6105,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5595,7 +6676,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6024,52 +7105,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="127" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="130" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6454,7 +7631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7281,7 +8458,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>540</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -7312,6 +8489,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>541</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -7339,7 +8519,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>542</v>
       </c>
       <c r="AA17" t="s">
         <v>504</v>
@@ -7362,7 +8542,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>539</v>
@@ -7382,7 +8562,7 @@
         <v>511</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -7402,7 +8582,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -7422,7 +8602,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>523</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -7442,7 +8622,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23">
@@ -7459,7 +8639,7 @@
         <v>435</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -7476,7 +8656,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -7493,7 +8673,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -7507,7 +8687,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -7521,7 +8701,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -7535,7 +8715,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -7549,7 +8729,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -7560,7 +8740,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -7571,7 +8751,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -7582,7 +8762,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -7593,7 +8773,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -7604,7 +8784,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -7615,7 +8795,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -7626,7 +8806,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -7637,7 +8817,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -7648,7 +8828,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39">
@@ -7656,7 +8836,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -7664,7 +8844,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -7672,7 +8852,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -7680,7 +8860,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -7688,7 +8868,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -7696,7 +8876,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -7704,7 +8884,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>440</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -7712,7 +8892,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47">
@@ -7720,7 +8900,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -7728,7 +8908,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -7736,7 +8916,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -7744,7 +8924,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -7752,7 +8932,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>524</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -7760,7 +8940,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53">
@@ -7768,7 +8948,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54">
@@ -7776,7 +8956,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -7784,7 +8964,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>500</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -7792,7 +8972,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57">
@@ -7800,7 +8980,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -7808,7 +8988,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -7816,7 +8996,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -7824,7 +9004,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -7832,7 +9012,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -7840,7 +9020,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -7848,7 +9028,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -7856,7 +9036,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>514</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65">
@@ -7864,7 +9044,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66">
@@ -7872,7 +9052,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -7880,7 +9060,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -7888,7 +9068,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69">
@@ -7896,7 +9076,7 @@
         <v>411</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -7904,7 +9084,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -7912,7 +9092,7 @@
         <v>412</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -7920,7 +9100,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -7928,7 +9108,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -7936,7 +9116,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>457</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -7944,7 +9124,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76">
@@ -7952,7 +9132,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77">
@@ -7960,7 +9140,7 @@
         <v>430</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -7968,7 +9148,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -7976,7 +9156,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>536</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -7984,7 +9164,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81">
@@ -7992,7 +9172,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -8000,7 +9180,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -8008,7 +9188,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>525</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -8016,7 +9196,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85">
@@ -8024,7 +9204,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -8032,7 +9212,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87">
@@ -8040,7 +9220,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -8048,7 +9228,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -8056,7 +9236,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -8064,7 +9244,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -8072,7 +9252,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -8080,161 +9260,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -22,14 +22,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="548">
   <si>
     <t>description</t>
   </si>
@@ -1696,6 +1696,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1718,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="172" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2695,8 +2710,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4092,8 +4208,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6669,6 +6938,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6676,7 +7227,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="200">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7201,52 +7752,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7631,7 +8230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8061,6 +8660,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>543</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -8183,7 +8785,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -8236,7 +8838,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -8277,7 +8879,7 @@
         <v>455</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -8315,7 +8917,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>545</v>
       </c>
       <c r="M11" t="s">
         <v>512</v>
@@ -8350,7 +8952,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>437</v>
@@ -8385,7 +8987,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>513</v>
@@ -8420,7 +9022,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -8452,7 +9054,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>459</v>
+        <v>546</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -8484,7 +9086,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -8516,7 +9118,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>542</v>
@@ -8539,7 +9141,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>459</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -8559,7 +9161,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>511</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -8579,7 +9181,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -8599,7 +9201,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -8619,7 +9221,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>511</v>
       </c>
       <c r="X22" t="s">
         <v>523</v>
@@ -8636,7 +9238,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -8653,7 +9255,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -8670,7 +9272,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -8686,6 +9288,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>435</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -8700,6 +9305,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -8714,6 +9322,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -9300,126 +9911,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1711,6 +1711,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1724,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="172" x14ac:knownFonts="1">
+  <fonts count="188" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2811,8 +2817,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4361,8 +4468,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -7220,6 +7480,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7227,7 +7769,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="216">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7800,52 +8342,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="162" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9381,7 +9971,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>548</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -9392,7 +9982,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -9403,7 +9993,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -9414,7 +10004,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -9425,7 +10015,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -9436,7 +10026,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>439</v>
@@ -9444,7 +10034,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -9452,7 +10042,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -9460,7 +10050,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -9468,7 +10058,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -9476,7 +10066,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -9484,7 +10074,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -9492,7 +10082,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -9500,7 +10090,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>440</v>
@@ -9508,7 +10098,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -9516,7 +10106,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -9524,7 +10114,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -9532,7 +10122,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -9540,7 +10130,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -9548,7 +10138,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>524</v>
@@ -9556,7 +10146,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>506</v>
@@ -9564,7 +10154,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -9572,7 +10162,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -9580,7 +10170,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>500</v>
@@ -9588,7 +10178,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -9596,7 +10186,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -9604,7 +10194,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -9612,7 +10202,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -9620,7 +10210,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -9628,7 +10218,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -9636,7 +10226,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -9644,7 +10234,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>441</v>
@@ -9652,7 +10242,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>514</v>
@@ -9660,7 +10250,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -9668,7 +10258,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -9676,7 +10266,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>442</v>
@@ -9684,7 +10274,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -9692,7 +10282,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -9700,7 +10290,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -9708,7 +10298,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -9716,7 +10306,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -9724,7 +10314,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>549</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -9732,7 +10322,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>457</v>
@@ -9740,7 +10330,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>508</v>
@@ -9748,7 +10338,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -9756,7 +10346,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -9764,7 +10354,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -9772,7 +10362,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>536</v>
@@ -9780,7 +10370,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -9788,7 +10378,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -9796,7 +10386,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -9804,7 +10394,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>525</v>
@@ -9812,7 +10402,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -9820,7 +10410,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>456</v>
@@ -9828,7 +10418,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -9836,7 +10426,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -9844,7 +10434,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -9852,7 +10442,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -9860,7 +10450,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -9868,18 +10458,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{01580931-EE6D-A442-80AB-B68098FD2F7B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="11980" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="11980"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -33,26 +33,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1720,6 +1721,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1749,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1911,8 +1933,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2101,8 +2224,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2422,6 +2715,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2429,7 +3004,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2570,52 +3145,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3000,9 +3623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3052,51 +3675,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>551</v>
+      </c>
+      <c r="O1" t="s">
         <v>513</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>237</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>394</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>410</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>355</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>395</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>412</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3141,51 +3767,54 @@
         <v>433</v>
       </c>
       <c r="N2" t="s">
+        <v>552</v>
+      </c>
+      <c r="O2" t="s">
         <v>516</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>415</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>428</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>251</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>215</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>396</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>417</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>379</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>405</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>174</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>430</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -3230,45 +3859,48 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
+        <v>553</v>
+      </c>
+      <c r="O3" t="s">
         <v>517</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>429</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>238</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>216</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>397</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>419</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>380</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>406</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>175</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>362</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>182</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3310,45 +3942,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>554</v>
+      </c>
+      <c r="O4" t="s">
         <v>518</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>239</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>217</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>398</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>420</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>356</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>407</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>352</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>422</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3383,40 +4018,43 @@
       <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>240</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>218</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>399</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>421</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>357</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>353</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>423</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3448,37 +4086,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>241</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>389</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>400</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>443</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>178</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>184</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>424</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3504,37 +4145,40 @@
       <c r="M7" t="s">
         <v>313</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>242</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>416</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>401</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>358</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>444</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>185</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>425</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3560,34 +4204,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>243</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>402</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>360</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>426</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3613,25 +4257,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>244</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>403</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3654,22 +4298,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>435</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>245</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>511</v>
       </c>
     </row>
@@ -3692,19 +4336,19 @@
       <c r="M11" t="s">
         <v>508</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>528</v>
       </c>
     </row>
@@ -3727,19 +4371,19 @@
       <c r="M12" t="s">
         <v>434</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>529</v>
       </c>
     </row>
@@ -3762,25 +4406,25 @@
       <c r="M13" t="s">
         <v>509</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -3797,25 +4441,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>513</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -3829,25 +4473,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>536</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>383</v>
@@ -3861,25 +4505,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>537</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>384</v>
@@ -3890,19 +4534,19 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>538</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>500</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
         <v>413</v>
@@ -3913,16 +4557,16 @@
       <c r="K18" t="s">
         <v>456</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -3933,16 +4577,16 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -3953,16 +4597,16 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E21" t="s">
         <v>254</v>
@@ -3973,16 +4617,16 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -3993,13 +4637,13 @@
       <c r="K22" t="s">
         <v>507</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="E23" t="s">
         <v>319</v>
@@ -4010,13 +4654,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>395</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -4027,13 +4671,13 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>449</v>
@@ -4044,13 +4688,13 @@
       <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>223</v>
@@ -4061,13 +4705,13 @@
       <c r="K26" t="s">
         <v>432</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -4078,13 +4722,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>505</v>
@@ -4095,13 +4739,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="E29" t="s">
         <v>506</v>
@@ -4109,18 +4753,21 @@
       <c r="G29" t="s">
         <v>282</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
       <c r="E30" t="s">
         <v>414</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4131,7 +4778,7 @@
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4142,7 +4789,7 @@
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4153,7 +4800,7 @@
       <c r="G33" t="s">
         <v>544</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4164,7 +4811,7 @@
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4175,7 +4822,7 @@
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4186,7 +4833,7 @@
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4197,7 +4844,7 @@
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4208,7 +4855,7 @@
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4216,7 +4863,7 @@
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4224,7 +4871,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4232,7 +4879,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4240,7 +4887,7 @@
       <c r="G42" t="s">
         <v>287</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4248,7 +4895,7 @@
       <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4256,7 +4903,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4264,7 +4911,7 @@
       <c r="G45" t="s">
         <v>341</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4272,7 +4919,7 @@
       <c r="G46" t="s">
         <v>340</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4280,7 +4927,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4288,7 +4935,7 @@
       <c r="G48" t="s">
         <v>318</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4296,7 +4943,7 @@
       <c r="G49" t="s">
         <v>337</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4304,7 +4951,7 @@
       <c r="G50" t="s">
         <v>366</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4312,7 +4959,7 @@
       <c r="G51" t="s">
         <v>300</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4320,7 +4967,7 @@
       <c r="G52" t="s">
         <v>354</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4328,7 +4975,7 @@
       <c r="G53" t="s">
         <v>329</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4336,7 +4983,7 @@
       <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4344,7 +4991,7 @@
       <c r="G55" t="s">
         <v>290</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4352,7 +4999,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4360,7 +5007,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4368,7 +5015,7 @@
       <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4376,7 +5023,7 @@
       <c r="G59" t="s">
         <v>310</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4384,7 +5031,7 @@
       <c r="G60" t="s">
         <v>335</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4392,7 +5039,7 @@
       <c r="G61" t="s">
         <v>307</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4400,7 +5047,7 @@
       <c r="G62" t="s">
         <v>308</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4408,7 +5055,7 @@
       <c r="G63" t="s">
         <v>367</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4416,7 +5063,7 @@
       <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4424,7 +5071,7 @@
       <c r="G65" t="s">
         <v>343</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4432,7 +5079,7 @@
       <c r="G66" t="s">
         <v>311</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4440,7 +5087,7 @@
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>387</v>
       </c>
     </row>
@@ -4448,7 +5095,7 @@
       <c r="G68" t="s">
         <v>351</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4456,7 +5103,7 @@
       <c r="G69" t="s">
         <v>312</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4464,7 +5111,7 @@
       <c r="G70" t="s">
         <v>408</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4472,7 +5119,7 @@
       <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4480,7 +5127,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4488,7 +5135,7 @@
       <c r="G73" t="s">
         <v>260</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4496,7 +5143,7 @@
       <c r="G74" t="s">
         <v>545</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4504,7 +5151,7 @@
       <c r="G75" t="s">
         <v>342</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>454</v>
       </c>
     </row>
@@ -4512,7 +5159,7 @@
       <c r="G76" t="s">
         <v>278</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>504</v>
       </c>
     </row>
@@ -4520,7 +5167,7 @@
       <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4528,7 +5175,7 @@
       <c r="G78" t="s">
         <v>289</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4536,7 +5183,7 @@
       <c r="G79" t="s">
         <v>427</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4544,7 +5191,7 @@
       <c r="G80" t="s">
         <v>330</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>532</v>
       </c>
     </row>
@@ -4552,7 +5199,7 @@
       <c r="G81" t="s">
         <v>268</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4560,7 +5207,7 @@
       <c r="G82" t="s">
         <v>279</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4568,7 +5215,7 @@
       <c r="G83" t="s">
         <v>285</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4576,7 +5223,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4584,7 +5231,7 @@
       <c r="G85" t="s">
         <v>269</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4592,7 +5239,7 @@
       <c r="G86" t="s">
         <v>286</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4600,7 +5247,7 @@
       <c r="G87" t="s">
         <v>270</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4608,7 +5255,7 @@
       <c r="G88" t="s">
         <v>271</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4616,7 +5263,7 @@
       <c r="G89" t="s">
         <v>303</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4624,7 +5271,7 @@
       <c r="G90" t="s">
         <v>309</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4632,7 +5279,7 @@
       <c r="G91" t="s">
         <v>293</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4640,7 +5287,7 @@
       <c r="G92" t="s">
         <v>338</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4648,7 +5295,7 @@
       <c r="G93" t="s">
         <v>275</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4656,172 +5303,172 @@
       <c r="G94" t="s">
         <v>276</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4834,7 +5481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16520,7 +17167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96146A54-13CA-A64D-8603-D948CB7CC707}">
   <dimension ref="A1:P1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -53,7 +53,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1742,6 +1742,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1761,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2034,8 +2046,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="64">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2394,8 +2608,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2997,6 +3551,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3004,7 +4122,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3193,52 +4311,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="50" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="81" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="84" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="87" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4019,7 +5233,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -4087,7 +5301,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -4146,7 +5360,7 @@
         <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -4204,6 +5418,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>555</v>
+      </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
@@ -4257,6 +5474,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>556</v>
+      </c>
       <c r="Q9" t="s">
         <v>92</v>
       </c>
@@ -4298,6 +5518,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>557</v>
+      </c>
       <c r="Q10" t="s">
         <v>435</v>
       </c>
@@ -4686,7 +5909,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>561</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>
@@ -4703,7 +5926,7 @@
         <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
         <v>111</v>
@@ -4720,7 +5943,7 @@
         <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="Y27" t="s">
         <v>112</v>
@@ -4737,7 +5960,7 @@
         <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>325</v>
@@ -4752,6 +5975,9 @@
       </c>
       <c r="G29" t="s">
         <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -53,7 +53,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1754,6 +1754,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2248,8 +2260,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="154">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2948,8 +3061,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -4115,6 +4398,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4122,7 +4687,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="120">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4407,52 +4972,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="96" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="99" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="105" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="105" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="114" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="114" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="117" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="126" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="129" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="135" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="141" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="144" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5043,7 +5656,7 @@
         <v>498</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
         <v>494</v>
@@ -5126,7 +5739,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -5209,7 +5822,7 @@
         <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E5" t="s">
         <v>495</v>
@@ -5233,7 +5846,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -5279,6 +5892,9 @@
       <c r="B6" t="s">
         <v>374</v>
       </c>
+      <c r="D6" t="s">
+        <v>526</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -5301,7 +5917,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -5360,7 +5976,7 @@
         <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -5419,7 +6035,7 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
@@ -5475,7 +6091,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="Q9" t="s">
         <v>92</v>
@@ -5519,7 +6135,7 @@
         <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Q10" t="s">
         <v>435</v>
@@ -5559,6 +6175,9 @@
       <c r="M11" t="s">
         <v>508</v>
       </c>
+      <c r="N11" t="s">
+        <v>556</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -5594,6 +6213,9 @@
       <c r="M12" t="s">
         <v>434</v>
       </c>
+      <c r="N12" t="s">
+        <v>557</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -5909,7 +6531,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -28,7 +28,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1766,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2361,8 +2367,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="154">
+  <fills count="184">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3231,8 +3338,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4680,6 +4957,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4687,7 +5246,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5020,52 +5579,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="126" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="126" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="129" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="129" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="135" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="135" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="141" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="141" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="144" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="144" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="147" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="147" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="156" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="159" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="162" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="165" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="171" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="174" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5450,7 +6057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5836,6 +6443,9 @@
       <c r="H5" t="s">
         <v>455</v>
       </c>
+      <c r="I5" t="s">
+        <v>566</v>
+      </c>
       <c r="J5" t="s">
         <v>349</v>
       </c>
@@ -6712,7 +7322,7 @@
         <v>265</v>
       </c>
       <c r="Y39" t="s">
-        <v>391</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40">
@@ -6720,7 +7330,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41">
@@ -6728,7 +7338,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -6736,7 +7346,7 @@
         <v>287</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -6744,7 +7354,7 @@
         <v>298</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -6752,7 +7362,7 @@
         <v>299</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -6760,7 +7370,7 @@
         <v>341</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -6768,7 +7378,7 @@
         <v>340</v>
       </c>
       <c r="Y46" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -6776,7 +7386,7 @@
         <v>209</v>
       </c>
       <c r="Y47" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48">
@@ -6784,7 +7394,7 @@
         <v>318</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49">
@@ -6792,7 +7402,7 @@
         <v>337</v>
       </c>
       <c r="Y49" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -6800,7 +7410,7 @@
         <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -6808,7 +7418,7 @@
         <v>300</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -6816,7 +7426,7 @@
         <v>354</v>
       </c>
       <c r="Y52" t="s">
-        <v>520</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -6824,7 +7434,7 @@
         <v>329</v>
       </c>
       <c r="Y53" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54">
@@ -6832,7 +7442,7 @@
         <v>266</v>
       </c>
       <c r="Y54" t="s">
-        <v>129</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55">
@@ -6840,7 +7450,7 @@
         <v>290</v>
       </c>
       <c r="Y55" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -6848,7 +7458,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>496</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57">
@@ -6856,7 +7466,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>130</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58">
@@ -6864,7 +7474,7 @@
         <v>301</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -6872,7 +7482,7 @@
         <v>310</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -6880,7 +7490,7 @@
         <v>335</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -6888,7 +7498,7 @@
         <v>307</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -6896,7 +7506,7 @@
         <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -6904,7 +7514,7 @@
         <v>367</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -6912,7 +7522,7 @@
         <v>368</v>
       </c>
       <c r="Y64" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -6920,7 +7530,7 @@
         <v>343</v>
       </c>
       <c r="Y65" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66">
@@ -6928,7 +7538,7 @@
         <v>311</v>
       </c>
       <c r="Y66" t="s">
-        <v>212</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67">
@@ -6936,7 +7546,7 @@
         <v>267</v>
       </c>
       <c r="Y67" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
@@ -6944,7 +7554,7 @@
         <v>351</v>
       </c>
       <c r="Y68" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69">
@@ -6952,7 +7562,7 @@
         <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70">
@@ -6960,7 +7570,7 @@
         <v>408</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -6968,7 +7578,7 @@
         <v>302</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -6976,7 +7586,7 @@
         <v>409</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -6984,7 +7594,7 @@
         <v>260</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -6992,7 +7602,7 @@
         <v>545</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -7000,7 +7610,7 @@
         <v>342</v>
       </c>
       <c r="Y75" t="s">
-        <v>454</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -7008,7 +7618,7 @@
         <v>278</v>
       </c>
       <c r="Y76" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77">
@@ -7016,7 +7626,7 @@
         <v>284</v>
       </c>
       <c r="Y77" t="s">
-        <v>141</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78">
@@ -7024,7 +7634,7 @@
         <v>289</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -7032,7 +7642,7 @@
         <v>427</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
@@ -7040,7 +7650,7 @@
         <v>330</v>
       </c>
       <c r="Y80" t="s">
-        <v>532</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
@@ -7048,7 +7658,7 @@
         <v>268</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82">
@@ -7056,7 +7666,7 @@
         <v>279</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -7064,7 +7674,7 @@
         <v>285</v>
       </c>
       <c r="Y83" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -7072,7 +7682,7 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>521</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -7080,7 +7690,7 @@
         <v>269</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86">
@@ -7088,7 +7698,7 @@
         <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -7096,7 +7706,7 @@
         <v>270</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88">
@@ -7104,7 +7714,7 @@
         <v>271</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -7112,7 +7722,7 @@
         <v>303</v>
       </c>
       <c r="Y89" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -7120,7 +7730,7 @@
         <v>309</v>
       </c>
       <c r="Y90" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -7128,7 +7738,7 @@
         <v>293</v>
       </c>
       <c r="Y91" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
@@ -7136,7 +7746,7 @@
         <v>338</v>
       </c>
       <c r="Y92" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -7144,7 +7754,7 @@
         <v>275</v>
       </c>
       <c r="Y93" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94">
@@ -7152,171 +7762,176 @@
         <v>276</v>
       </c>
       <c r="Y94" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>543</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>550</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -26,13 +26,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -47,12 +47,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1772,6 +1772,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2468,8 +2501,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="184">
+  <fills count="211">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3508,8 +3642,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="203">
     <border>
       <left/>
       <right/>
@@ -5239,6 +5526,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5246,7 +5859,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5627,52 +6240,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="156" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="156" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="159" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="159" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="162" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="162" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="165" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="165" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="171" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="171" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="174" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="174" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="177" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="177" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="186" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="189" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="192" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="195" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="201" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="192" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="204" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="204" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6057,7 +6718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6579,6 +7240,9 @@
       <c r="H7" t="s">
         <v>445</v>
       </c>
+      <c r="J7" t="s">
+        <v>570</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -6619,7 +7283,7 @@
         <v>425</v>
       </c>
       <c r="AD7" t="s">
-        <v>230</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8">
@@ -6675,7 +7339,7 @@
         <v>426</v>
       </c>
       <c r="AD8" t="s">
-        <v>231</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9">
@@ -6722,7 +7386,7 @@
         <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>232</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10">
@@ -6763,7 +7427,7 @@
         <v>188</v>
       </c>
       <c r="AD10" t="s">
-        <v>511</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -6801,7 +7465,7 @@
         <v>257</v>
       </c>
       <c r="AD11" t="s">
-        <v>528</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -6821,7 +7485,7 @@
         <v>388</v>
       </c>
       <c r="M12" t="s">
-        <v>434</v>
+        <v>571</v>
       </c>
       <c r="N12" t="s">
         <v>557</v>
@@ -6839,7 +7503,7 @@
         <v>189</v>
       </c>
       <c r="AD12" t="s">
-        <v>529</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -6859,7 +7523,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -6874,7 +7538,7 @@
         <v>190</v>
       </c>
       <c r="AD13" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">
@@ -6894,7 +7558,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>509</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -6909,7 +7573,7 @@
         <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15">
@@ -6926,7 +7590,7 @@
         <v>542</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>536</v>
@@ -6941,7 +7605,7 @@
         <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
@@ -6958,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>537</v>
@@ -6973,7 +7637,7 @@
         <v>193</v>
       </c>
       <c r="AD16" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17">
@@ -6989,6 +7653,9 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>538</v>
       </c>
@@ -6996,7 +7663,7 @@
         <v>500</v>
       </c>
       <c r="AD17" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18">
@@ -7016,7 +7683,7 @@
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19">
@@ -7036,7 +7703,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>233</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20">
@@ -7056,7 +7723,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>234</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21">
@@ -7076,7 +7743,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>235</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22">
@@ -7095,6 +7762,9 @@
       <c r="Y22" t="s">
         <v>519</v>
       </c>
+      <c r="AD22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -7112,6 +7782,9 @@
       <c r="Y23" t="s">
         <v>108</v>
       </c>
+      <c r="AD23" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -7129,6 +7802,9 @@
       <c r="Y24" t="s">
         <v>109</v>
       </c>
+      <c r="AD24" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -7146,6 +7822,9 @@
       <c r="Y25" t="s">
         <v>110</v>
       </c>
+      <c r="AD25" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -7163,6 +7842,9 @@
       <c r="Y26" t="s">
         <v>111</v>
       </c>
+      <c r="AD26" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -7180,6 +7862,9 @@
       <c r="Y27" t="s">
         <v>112</v>
       </c>
+      <c r="AD27" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -7410,7 +8095,7 @@
         <v>366</v>
       </c>
       <c r="Y50" t="s">
-        <v>126</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51">
@@ -7418,7 +8103,7 @@
         <v>300</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -7426,7 +8111,7 @@
         <v>354</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
@@ -7434,7 +8119,7 @@
         <v>329</v>
       </c>
       <c r="Y53" t="s">
-        <v>520</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -7442,7 +8127,7 @@
         <v>266</v>
       </c>
       <c r="Y54" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55">
@@ -7450,7 +8135,7 @@
         <v>290</v>
       </c>
       <c r="Y55" t="s">
-        <v>129</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56">
@@ -7458,7 +8143,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -7466,7 +8151,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>496</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58">
@@ -7474,7 +8159,7 @@
         <v>301</v>
       </c>
       <c r="Y58" t="s">
-        <v>130</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59">
@@ -7482,7 +8167,7 @@
         <v>310</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -7490,7 +8175,7 @@
         <v>335</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -7498,7 +8183,7 @@
         <v>307</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -7506,7 +8191,7 @@
         <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -7514,7 +8199,7 @@
         <v>367</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -7522,7 +8207,7 @@
         <v>368</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -7530,7 +8215,7 @@
         <v>343</v>
       </c>
       <c r="Y65" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -7538,7 +8223,7 @@
         <v>311</v>
       </c>
       <c r="Y66" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67">
@@ -7546,15 +8231,15 @@
         <v>267</v>
       </c>
       <c r="Y67" t="s">
-        <v>212</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>351</v>
+        <v>568</v>
       </c>
       <c r="Y68" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
@@ -7562,7 +8247,7 @@
         <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70">
@@ -7570,7 +8255,7 @@
         <v>408</v>
       </c>
       <c r="Y70" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71">
@@ -7578,7 +8263,7 @@
         <v>302</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -7586,7 +8271,7 @@
         <v>409</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -7594,7 +8279,7 @@
         <v>260</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -7602,7 +8287,7 @@
         <v>545</v>
       </c>
       <c r="Y74" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -7610,7 +8295,7 @@
         <v>342</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -7618,7 +8303,7 @@
         <v>278</v>
       </c>
       <c r="Y76" t="s">
-        <v>454</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
@@ -7626,7 +8311,7 @@
         <v>284</v>
       </c>
       <c r="Y77" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78">
@@ -7634,7 +8319,7 @@
         <v>289</v>
       </c>
       <c r="Y78" t="s">
-        <v>141</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79">
@@ -7642,7 +8327,7 @@
         <v>427</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
@@ -7650,7 +8335,7 @@
         <v>330</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
@@ -7658,7 +8343,7 @@
         <v>268</v>
       </c>
       <c r="Y81" t="s">
-        <v>532</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
@@ -7666,7 +8351,7 @@
         <v>279</v>
       </c>
       <c r="Y82" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83">
@@ -7674,7 +8359,7 @@
         <v>285</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -7682,256 +8367,264 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>269</v>
+        <v>569</v>
       </c>
       <c r="Y85" t="s">
-        <v>521</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y86" t="s">
-        <v>198</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y87" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y88" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y90" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y91" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y92" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y93" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>543</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>550</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -22,7 +22,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -46,14 +46,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1805,6 +1806,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1822,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2602,8 +2612,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="211">
+  <fills count="238">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3795,8 +3906,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="203">
+  <borders count="235">
     <border>
       <left/>
       <right/>
@@ -5852,6 +6116,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5859,7 +6449,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6288,52 +6878,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="186" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="186" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="189" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="189" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="192" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="192" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="195" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="195" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="201" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="201" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="192" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="192" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="204" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="204" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="204" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="204" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="213" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="216" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="219" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="222" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="228" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="219" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="231" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="231" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6718,7 +7356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6803,21 +7441,24 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6895,21 +7536,24 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6980,22 +7624,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7063,22 +7707,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7137,22 +7781,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>353</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7205,22 +7849,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7267,22 +7911,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>573</v>
       </c>
     </row>
@@ -7323,22 +7967,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>574</v>
       </c>
     </row>
@@ -7379,13 +8023,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>575</v>
       </c>
     </row>
@@ -7420,13 +8064,13 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7458,13 +8102,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7496,13 +8140,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7531,13 +8175,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7566,13 +8210,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>528</v>
       </c>
     </row>
@@ -7598,13 +8242,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7630,13 +8274,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -7656,13 +8300,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>538</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>500</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7679,10 +8323,10 @@
       <c r="K18" t="s">
         <v>456</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7699,10 +8343,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>530</v>
       </c>
     </row>
@@ -7719,10 +8363,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>531</v>
       </c>
     </row>
@@ -7739,10 +8383,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7751,7 +8395,7 @@
         <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>580</v>
       </c>
       <c r="G22" t="s">
         <v>297</v>
@@ -7759,10 +8403,10 @@
       <c r="K22" t="s">
         <v>507</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>519</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7771,7 +8415,7 @@
         <v>355</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>288</v>
@@ -7779,10 +8423,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7791,7 +8435,7 @@
         <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
         <v>277</v>
@@ -7799,19 +8443,19 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>109</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>579</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -7819,19 +8463,19 @@
       <c r="K25" t="s">
         <v>563</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>449</v>
       </c>
       <c r="G26" t="s">
         <v>280</v>
@@ -7839,19 +8483,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>264</v>
@@ -7859,19 +8503,19 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>505</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>281</v>
@@ -7879,16 +8523,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G29" t="s">
         <v>282</v>
@@ -7896,117 +8540,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>544</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>567</v>
       </c>
     </row>
@@ -8014,7 +8664,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8022,7 +8672,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8030,7 +8680,7 @@
       <c r="G42" t="s">
         <v>287</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8038,7 +8688,7 @@
       <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8046,7 +8696,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8054,7 +8704,7 @@
       <c r="G45" t="s">
         <v>341</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8062,7 +8712,7 @@
       <c r="G46" t="s">
         <v>340</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8070,7 +8720,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8078,7 +8728,7 @@
       <c r="G48" t="s">
         <v>318</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8086,7 +8736,7 @@
       <c r="G49" t="s">
         <v>337</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8094,7 +8744,7 @@
       <c r="G50" t="s">
         <v>366</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>572</v>
       </c>
     </row>
@@ -8102,7 +8752,7 @@
       <c r="G51" t="s">
         <v>300</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8110,7 +8760,7 @@
       <c r="G52" t="s">
         <v>354</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8118,7 +8768,7 @@
       <c r="G53" t="s">
         <v>329</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8126,7 +8776,7 @@
       <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8134,7 +8784,7 @@
       <c r="G55" t="s">
         <v>290</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>502</v>
       </c>
     </row>
@@ -8142,7 +8792,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8150,7 +8800,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8158,7 +8808,7 @@
       <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>496</v>
       </c>
     </row>
@@ -8166,7 +8816,7 @@
       <c r="G59" t="s">
         <v>310</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8174,7 +8824,7 @@
       <c r="G60" t="s">
         <v>335</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8182,7 +8832,7 @@
       <c r="G61" t="s">
         <v>307</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8190,7 +8840,7 @@
       <c r="G62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8198,7 +8848,7 @@
       <c r="G63" t="s">
         <v>367</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8206,7 +8856,7 @@
       <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8214,7 +8864,7 @@
       <c r="G65" t="s">
         <v>343</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8222,7 +8872,7 @@
       <c r="G66" t="s">
         <v>311</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8230,7 +8880,7 @@
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8238,7 +8888,7 @@
       <c r="G68" t="s">
         <v>568</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -8246,7 +8896,7 @@
       <c r="G69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8254,7 +8904,7 @@
       <c r="G70" t="s">
         <v>408</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8262,7 +8912,7 @@
       <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8270,7 +8920,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8278,7 +8928,7 @@
       <c r="G73" t="s">
         <v>260</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8286,7 +8936,7 @@
       <c r="G74" t="s">
         <v>545</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8294,7 +8944,7 @@
       <c r="G75" t="s">
         <v>342</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8302,7 +8952,7 @@
       <c r="G76" t="s">
         <v>278</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8310,7 +8960,7 @@
       <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8318,7 +8968,7 @@
       <c r="G78" t="s">
         <v>289</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>504</v>
       </c>
     </row>
@@ -8326,7 +8976,7 @@
       <c r="G79" t="s">
         <v>427</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8334,7 +8984,7 @@
       <c r="G80" t="s">
         <v>330</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8342,7 +8992,7 @@
       <c r="G81" t="s">
         <v>268</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8350,7 +9000,7 @@
       <c r="G82" t="s">
         <v>279</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>532</v>
       </c>
     </row>
@@ -8358,7 +9008,7 @@
       <c r="G83" t="s">
         <v>285</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8366,7 +9016,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8374,7 +9024,7 @@
       <c r="G85" t="s">
         <v>569</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8382,7 +9032,7 @@
       <c r="G86" t="s">
         <v>269</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8390,7 +9040,7 @@
       <c r="G87" t="s">
         <v>286</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8398,7 +9048,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8406,7 +9056,7 @@
       <c r="G89" t="s">
         <v>271</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8414,7 +9064,7 @@
       <c r="G90" t="s">
         <v>303</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8422,7 +9072,7 @@
       <c r="G91" t="s">
         <v>309</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8430,7 +9080,7 @@
       <c r="G92" t="s">
         <v>293</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8438,7 +9088,7 @@
       <c r="G93" t="s">
         <v>338</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8446,7 +9096,7 @@
       <c r="G94" t="s">
         <v>275</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8454,177 +9104,177 @@
       <c r="G95" t="s">
         <v>276</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -26,7 +26,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1815,6 +1815,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1828,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2713,8 +2719,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="238">
+  <fills count="265">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4059,8 +4166,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="235">
+  <borders count="267">
     <border>
       <left/>
       <right/>
@@ -6442,6 +6702,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6449,7 +7035,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6926,52 +7512,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="213" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="213" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="216" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="216" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="219" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="219" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="222" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="222" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="228" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="228" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="219" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="219" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="231" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="231" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="231" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="231" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="249" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="255" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="246" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="258" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8678,7 +9312,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>287</v>
+        <v>582</v>
       </c>
       <c r="Z42" t="s">
         <v>121</v>
@@ -8686,7 +9320,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Z43" t="s">
         <v>122</v>
@@ -8694,7 +9328,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z44" t="s">
         <v>123</v>
@@ -8702,7 +9336,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Z45" t="s">
         <v>124</v>
@@ -8710,7 +9344,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z46" t="s">
         <v>125</v>
@@ -8718,7 +9352,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Z47" t="s">
         <v>437</v>
@@ -8726,7 +9360,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Z48" t="s">
         <v>211</v>
@@ -8734,7 +9368,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Z49" t="s">
         <v>77</v>
@@ -8742,7 +9376,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s">
         <v>572</v>
@@ -8750,7 +9384,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Z51" t="s">
         <v>126</v>
@@ -8758,7 +9392,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Z52" t="s">
         <v>127</v>
@@ -8766,7 +9400,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Z53" t="s">
         <v>128</v>
@@ -8774,7 +9408,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Z54" t="s">
         <v>520</v>
@@ -8782,7 +9416,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Z55" t="s">
         <v>502</v>
@@ -8790,7 +9424,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z56" t="s">
         <v>129</v>
@@ -8798,7 +9432,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z57" t="s">
         <v>344</v>
@@ -8806,7 +9440,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>301</v>
+        <v>583</v>
       </c>
       <c r="Z58" t="s">
         <v>496</v>
@@ -8814,7 +9448,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="Z59" t="s">
         <v>130</v>
@@ -8822,7 +9456,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="Z60" t="s">
         <v>131</v>
@@ -8830,7 +9464,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Z61" t="s">
         <v>132</v>
@@ -8838,7 +9472,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Z62" t="s">
         <v>133</v>
@@ -8846,7 +9480,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="Z63" t="s">
         <v>134</v>
@@ -8854,7 +9488,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="Z64" t="s">
         <v>135</v>
@@ -8862,7 +9496,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="Z65" t="s">
         <v>136</v>
@@ -8870,7 +9504,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="Z66" t="s">
         <v>438</v>
@@ -8878,7 +9512,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="Z67" t="s">
         <v>510</v>
@@ -8886,7 +9520,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>568</v>
+        <v>311</v>
       </c>
       <c r="Z68" t="s">
         <v>212</v>
@@ -8894,7 +9528,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="Z69" t="s">
         <v>387</v>
@@ -8902,7 +9536,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="Z70" t="s">
         <v>439</v>
@@ -8910,7 +9544,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Z71" t="s">
         <v>137</v>
@@ -8918,7 +9552,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z72" t="s">
         <v>138</v>
@@ -8926,7 +9560,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="Z73" t="s">
         <v>139</v>
@@ -8934,7 +9568,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>545</v>
+        <v>409</v>
       </c>
       <c r="Z74" t="s">
         <v>140</v>
@@ -8942,7 +9576,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="Z75" t="s">
         <v>195</v>
@@ -8950,7 +9584,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>278</v>
+        <v>545</v>
       </c>
       <c r="Z76" t="s">
         <v>196</v>
@@ -8958,7 +9592,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="Z77" t="s">
         <v>454</v>
@@ -8966,7 +9600,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="Z78" t="s">
         <v>504</v>
@@ -8974,7 +9608,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>427</v>
+        <v>284</v>
       </c>
       <c r="Z79" t="s">
         <v>141</v>
@@ -8982,7 +9616,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="Z80" t="s">
         <v>142</v>
@@ -8990,7 +9624,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>268</v>
+        <v>427</v>
       </c>
       <c r="Z81" t="s">
         <v>143</v>
@@ -8998,7 +9632,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="Z82" t="s">
         <v>532</v>
@@ -9006,7 +9640,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="Z83" t="s">
         <v>144</v>
@@ -9014,7 +9648,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Z84" t="s">
         <v>145</v>
@@ -9022,7 +9656,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>569</v>
+        <v>285</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -9030,7 +9664,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Z86" t="s">
         <v>521</v>
@@ -9038,7 +9672,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>286</v>
+        <v>569</v>
       </c>
       <c r="Z87" t="s">
         <v>198</v>
@@ -9046,7 +9680,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z88" t="s">
         <v>453</v>
@@ -9054,7 +9688,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Z89" t="s">
         <v>199</v>
@@ -9062,7 +9696,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="Z90" t="s">
         <v>200</v>
@@ -9070,7 +9704,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="Z91" t="s">
         <v>213</v>
@@ -9078,7 +9712,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Z92" t="s">
         <v>146</v>
@@ -9086,7 +9720,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="Z93" t="s">
         <v>201</v>
@@ -9094,7 +9728,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="Z94" t="s">
         <v>440</v>
@@ -9102,18 +9736,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="Z95" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>275</v>
+      </c>
       <c r="Z96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
       <c r="Z97" t="s">
         <v>203</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -32,7 +32,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -46,13 +46,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1821,6 +1821,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1831,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="172" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2820,8 +2823,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="265">
+  <fills count="292">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4319,8 +4423,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="267">
+  <borders count="299">
     <border>
       <left/>
       <right/>
@@ -7028,6 +7285,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7035,7 +7618,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="200">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7560,52 +8143,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="249" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="249" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="255" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="255" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="246" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="246" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="258" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="258" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="276" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="273" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7990,7 +8621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8075,24 +8706,21 @@
         <v>395</v>
       </c>
       <c r="Y1" t="s">
-        <v>579</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="AD1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8170,24 +8798,21 @@
         <v>405</v>
       </c>
       <c r="Y2" t="s">
-        <v>581</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AC2" t="s">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="AD2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -8258,22 +8883,22 @@
       <c r="X3" t="s">
         <v>406</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB3" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="AD3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8341,22 +8966,22 @@
       <c r="X4" t="s">
         <v>407</v>
       </c>
+      <c r="Y4" t="s">
+        <v>352</v>
+      </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="AD4" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8415,22 +9040,22 @@
       <c r="W5" t="s">
         <v>357</v>
       </c>
+      <c r="Y5" t="s">
+        <v>353</v>
+      </c>
       <c r="Z5" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8483,22 +9108,22 @@
       <c r="W6" t="s">
         <v>359</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>443</v>
       </c>
       <c r="AA6" t="s">
-        <v>443</v>
+        <v>178</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD6" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8545,22 +9170,22 @@
       <c r="W7" t="s">
         <v>358</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AA7" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC7" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD7" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE7" t="s">
         <v>573</v>
       </c>
     </row>
@@ -8601,22 +9226,22 @@
       <c r="W8" t="s">
         <v>360</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD8" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE8" t="s">
         <v>574</v>
       </c>
     </row>
@@ -8657,13 +9282,13 @@
       <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8698,13 +9323,13 @@
       <c r="T10" t="s">
         <v>404</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8736,13 +9361,13 @@
       <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8774,13 +9399,13 @@
       <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8809,13 +9434,13 @@
       <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8844,13 +9469,13 @@
       <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>528</v>
       </c>
     </row>
@@ -8876,13 +9501,13 @@
       <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>529</v>
       </c>
     </row>
@@ -8900,7 +9525,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>584</v>
       </c>
       <c r="Q16" t="s">
         <v>537</v>
@@ -8908,13 +9533,13 @@
       <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -8932,15 +9557,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>538</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>500</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -8957,10 +9582,13 @@
       <c r="K18" t="s">
         <v>456</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8977,10 +9605,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>530</v>
       </c>
     </row>
@@ -8997,10 +9625,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>531</v>
       </c>
     </row>
@@ -9017,10 +9645,10 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9037,10 +9665,10 @@
       <c r="K22" t="s">
         <v>507</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>519</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9057,10 +9685,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>576</v>
       </c>
     </row>
@@ -9077,16 +9705,16 @@
       <c r="K24" t="s">
         <v>390</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>579</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -9097,16 +9725,16 @@
       <c r="K25" t="s">
         <v>563</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>449</v>
@@ -9117,16 +9745,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>223</v>
@@ -9137,16 +9765,16 @@
       <c r="K27" t="s">
         <v>432</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>224</v>
@@ -9157,13 +9785,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>412</v>
       </c>
       <c r="E29" t="s">
         <v>505</v>
@@ -9174,13 +9802,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
         <v>506</v>
@@ -9188,21 +9816,18 @@
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
       <c r="E31" t="s">
         <v>414</v>
       </c>
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9213,7 +9838,7 @@
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9224,7 +9849,7 @@
       <c r="G33" t="s">
         <v>544</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9235,7 +9860,7 @@
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9246,7 +9871,7 @@
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -9257,7 +9882,7 @@
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9268,7 +9893,7 @@
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9279,7 +9904,7 @@
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9290,7 +9915,7 @@
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9298,7 +9923,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9306,7 +9931,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9314,7 +9939,7 @@
       <c r="G42" t="s">
         <v>582</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9322,7 +9947,7 @@
       <c r="G43" t="s">
         <v>287</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9330,7 +9955,7 @@
       <c r="G44" t="s">
         <v>298</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9338,7 +9963,7 @@
       <c r="G45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9346,7 +9971,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9354,7 +9979,7 @@
       <c r="G47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9362,7 +9987,7 @@
       <c r="G48" t="s">
         <v>209</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9370,7 +9995,7 @@
       <c r="G49" t="s">
         <v>318</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9378,7 +10003,7 @@
       <c r="G50" t="s">
         <v>337</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9386,7 +10011,7 @@
       <c r="G51" t="s">
         <v>366</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9394,7 +10019,7 @@
       <c r="G52" t="s">
         <v>300</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9402,7 +10027,7 @@
       <c r="G53" t="s">
         <v>354</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9410,7 +10035,7 @@
       <c r="G54" t="s">
         <v>329</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>520</v>
       </c>
     </row>
@@ -9418,7 +10043,7 @@
       <c r="G55" t="s">
         <v>266</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>502</v>
       </c>
     </row>
@@ -9426,7 +10051,7 @@
       <c r="G56" t="s">
         <v>290</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9434,7 +10059,7 @@
       <c r="G57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9442,7 +10067,7 @@
       <c r="G58" t="s">
         <v>583</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>496</v>
       </c>
     </row>
@@ -9450,7 +10075,7 @@
       <c r="G59" t="s">
         <v>292</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9458,7 +10083,7 @@
       <c r="G60" t="s">
         <v>301</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9466,7 +10091,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9474,7 +10099,7 @@
       <c r="G62" t="s">
         <v>335</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9482,7 +10107,7 @@
       <c r="G63" t="s">
         <v>307</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9490,7 +10115,7 @@
       <c r="G64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9498,7 +10123,7 @@
       <c r="G65" t="s">
         <v>367</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9506,7 +10131,7 @@
       <c r="G66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9514,7 +10139,7 @@
       <c r="G67" t="s">
         <v>343</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9522,7 +10147,7 @@
       <c r="G68" t="s">
         <v>311</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9530,7 +10155,7 @@
       <c r="G69" t="s">
         <v>267</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9538,7 +10163,7 @@
       <c r="G70" t="s">
         <v>568</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9546,7 +10171,7 @@
       <c r="G71" t="s">
         <v>312</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9554,7 +10179,7 @@
       <c r="G72" t="s">
         <v>408</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9562,7 +10187,7 @@
       <c r="G73" t="s">
         <v>302</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9570,7 +10195,7 @@
       <c r="G74" t="s">
         <v>409</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9578,7 +10203,7 @@
       <c r="G75" t="s">
         <v>260</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9586,7 +10211,7 @@
       <c r="G76" t="s">
         <v>545</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9594,7 +10219,7 @@
       <c r="G77" t="s">
         <v>342</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>454</v>
       </c>
     </row>
@@ -9602,7 +10227,7 @@
       <c r="G78" t="s">
         <v>278</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>504</v>
       </c>
     </row>
@@ -9610,7 +10235,7 @@
       <c r="G79" t="s">
         <v>284</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9618,7 +10243,7 @@
       <c r="G80" t="s">
         <v>289</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9626,7 +10251,7 @@
       <c r="G81" t="s">
         <v>427</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9634,7 +10259,7 @@
       <c r="G82" t="s">
         <v>330</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9642,7 +10267,7 @@
       <c r="G83" t="s">
         <v>268</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>144</v>
       </c>
     </row>
@@ -9650,7 +10275,7 @@
       <c r="G84" t="s">
         <v>279</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9658,7 +10283,7 @@
       <c r="G85" t="s">
         <v>285</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9666,7 +10291,7 @@
       <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9674,7 +10299,7 @@
       <c r="G87" t="s">
         <v>569</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9682,7 +10307,7 @@
       <c r="G88" t="s">
         <v>269</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9690,7 +10315,7 @@
       <c r="G89" t="s">
         <v>286</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9698,7 +10323,7 @@
       <c r="G90" t="s">
         <v>270</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9706,7 +10331,7 @@
       <c r="G91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9714,7 +10339,7 @@
       <c r="G92" t="s">
         <v>303</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9722,7 +10347,7 @@
       <c r="G93" t="s">
         <v>309</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9730,7 +10355,7 @@
       <c r="G94" t="s">
         <v>293</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9738,7 +10363,7 @@
       <c r="G95" t="s">
         <v>338</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>441</v>
       </c>
     </row>
@@ -9746,7 +10371,7 @@
       <c r="G96" t="s">
         <v>275</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9754,167 +10379,167 @@
       <c r="G97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9024" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1824,6 +1824,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1843,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="172" x14ac:knownFonts="1">
+  <fonts count="252" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2924,8 +2936,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="292">
+  <fills count="427">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4576,8 +5093,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="299">
+  <borders count="459">
     <border>
       <left/>
       <right/>
@@ -7611,6 +8893,1636 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7618,7 +10530,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="280">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8191,52 +11103,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="270" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="273" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="276" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="276" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="162" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="273" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="273" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="300" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="309" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="300" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="312" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="312" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="324" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="327" fontId="191" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="330" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="327" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="339" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="339" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="348" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="351" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="354" fontId="207" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="357" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="363" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="354" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="366" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="366" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="372" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="375" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="378" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="381" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="384" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="390" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="381" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="393" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="393" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="402" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="405" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="408" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="411" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="417" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="408" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="420" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="420" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8621,7 +11773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9706,7 +12858,7 @@
         <v>390</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>585</v>
       </c>
       <c r="AD24" t="s">
         <v>577</v>
@@ -9726,7 +12878,7 @@
         <v>563</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD25" t="s">
         <v>578</v>
@@ -9746,7 +12898,7 @@
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="s">
         <v>234</v>
@@ -9766,7 +12918,7 @@
         <v>432</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD27" t="s">
         <v>235</v>
@@ -9786,7 +12938,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -9803,7 +12955,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -9817,7 +12969,7 @@
         <v>214</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -9828,7 +12980,7 @@
         <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -9839,7 +12991,7 @@
         <v>283</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -9850,7 +13002,7 @@
         <v>544</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -9861,7 +13013,7 @@
         <v>258</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35">
@@ -9872,7 +13024,7 @@
         <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -9883,7 +13035,7 @@
         <v>305</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -9894,7 +13046,7 @@
         <v>259</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
@@ -9905,7 +13057,7 @@
         <v>306</v>
       </c>
       <c r="Y38" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -9916,7 +13068,7 @@
         <v>265</v>
       </c>
       <c r="Y39" t="s">
-        <v>567</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
@@ -9924,7 +13076,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41">
@@ -9932,7 +13084,7 @@
         <v>210</v>
       </c>
       <c r="Y41" t="s">
-        <v>120</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42">
@@ -9940,7 +13092,7 @@
         <v>582</v>
       </c>
       <c r="Y42" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43">
@@ -9948,7 +13100,7 @@
         <v>287</v>
       </c>
       <c r="Y43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -9956,7 +13108,7 @@
         <v>298</v>
       </c>
       <c r="Y44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
@@ -9964,7 +13116,7 @@
         <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -9972,7 +13124,7 @@
         <v>341</v>
       </c>
       <c r="Y46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -9980,7 +13132,7 @@
         <v>340</v>
       </c>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -9988,7 +13140,7 @@
         <v>209</v>
       </c>
       <c r="Y48" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -9996,7 +13148,7 @@
         <v>318</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
@@ -10004,7 +13156,7 @@
         <v>337</v>
       </c>
       <c r="Y50" t="s">
-        <v>572</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
@@ -10012,7 +13164,7 @@
         <v>366</v>
       </c>
       <c r="Y51" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -10020,7 +13172,7 @@
         <v>300</v>
       </c>
       <c r="Y52" t="s">
-        <v>127</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53">
@@ -10028,7 +13180,7 @@
         <v>354</v>
       </c>
       <c r="Y53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -10036,7 +13188,7 @@
         <v>329</v>
       </c>
       <c r="Y54" t="s">
-        <v>520</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -10044,7 +13196,7 @@
         <v>266</v>
       </c>
       <c r="Y55" t="s">
-        <v>502</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -10052,7 +13204,7 @@
         <v>290</v>
       </c>
       <c r="Y56" t="s">
-        <v>129</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57">
@@ -10060,7 +13212,7 @@
         <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58">
@@ -10068,7 +13220,7 @@
         <v>583</v>
       </c>
       <c r="Y58" t="s">
-        <v>496</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -10076,7 +13228,7 @@
         <v>292</v>
       </c>
       <c r="Y59" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
@@ -10084,7 +13236,7 @@
         <v>301</v>
       </c>
       <c r="Y60" t="s">
-        <v>131</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61">
@@ -10092,7 +13244,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -10100,7 +13252,7 @@
         <v>335</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -10108,7 +13260,7 @@
         <v>307</v>
       </c>
       <c r="Y63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -10116,7 +13268,7 @@
         <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
@@ -10124,7 +13276,7 @@
         <v>367</v>
       </c>
       <c r="Y65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
@@ -10132,7 +13284,7 @@
         <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -10140,7 +13292,7 @@
         <v>343</v>
       </c>
       <c r="Y67" t="s">
-        <v>510</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
@@ -10148,7 +13300,7 @@
         <v>311</v>
       </c>
       <c r="Y68" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69">
@@ -10156,7 +13308,7 @@
         <v>267</v>
       </c>
       <c r="Y69" t="s">
-        <v>387</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70">
@@ -10164,7 +13316,7 @@
         <v>568</v>
       </c>
       <c r="Y70" t="s">
-        <v>439</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
@@ -10172,7 +13324,7 @@
         <v>312</v>
       </c>
       <c r="Y71" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
@@ -10180,7 +13332,7 @@
         <v>408</v>
       </c>
       <c r="Y72" t="s">
-        <v>138</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73">
@@ -10188,7 +13340,7 @@
         <v>302</v>
       </c>
       <c r="Y73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -10196,7 +13348,7 @@
         <v>409</v>
       </c>
       <c r="Y74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -10204,7 +13356,7 @@
         <v>260</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -10212,7 +13364,7 @@
         <v>545</v>
       </c>
       <c r="Y76" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -10220,7 +13372,7 @@
         <v>342</v>
       </c>
       <c r="Y77" t="s">
-        <v>454</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -10228,7 +13380,7 @@
         <v>278</v>
       </c>
       <c r="Y78" t="s">
-        <v>504</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -10236,7 +13388,7 @@
         <v>284</v>
       </c>
       <c r="Y79" t="s">
-        <v>141</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80">
@@ -10244,7 +13396,7 @@
         <v>289</v>
       </c>
       <c r="Y80" t="s">
-        <v>142</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81">
@@ -10252,7 +13404,7 @@
         <v>427</v>
       </c>
       <c r="Y81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
@@ -10260,7 +13412,7 @@
         <v>330</v>
       </c>
       <c r="Y82" t="s">
-        <v>532</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
@@ -10268,7 +13420,7 @@
         <v>268</v>
       </c>
       <c r="Y83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
@@ -10276,7 +13428,7 @@
         <v>279</v>
       </c>
       <c r="Y84" t="s">
-        <v>145</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85">
@@ -10284,7 +13436,7 @@
         <v>285</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
@@ -10292,7 +13444,7 @@
         <v>274</v>
       </c>
       <c r="Y86" t="s">
-        <v>521</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
@@ -10300,7 +13452,7 @@
         <v>569</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -10308,7 +13460,7 @@
         <v>269</v>
       </c>
       <c r="Y88" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89">
@@ -10316,7 +13468,7 @@
         <v>286</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -10324,7 +13476,7 @@
         <v>270</v>
       </c>
       <c r="Y90" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91">
@@ -10332,7 +13484,7 @@
         <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -10340,7 +13492,7 @@
         <v>303</v>
       </c>
       <c r="Y92" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -10348,7 +13500,7 @@
         <v>309</v>
       </c>
       <c r="Y93" t="s">
-        <v>201</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94">
@@ -10356,7 +13508,7 @@
         <v>293</v>
       </c>
       <c r="Y94" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
@@ -10364,7 +13516,7 @@
         <v>338</v>
       </c>
       <c r="Y95" t="s">
-        <v>441</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
@@ -10372,7 +13524,7 @@
         <v>275</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
@@ -10380,166 +13532,186 @@
         <v>276</v>
       </c>
       <c r="Y97" t="s">
-        <v>203</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>543</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>549</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>381</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>149</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>442</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>587</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -26,7 +26,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9024" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9580" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1836,6 +1836,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="252" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3441,8 +3447,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="427">
+  <fills count="454">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5858,8 +5965,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="459">
+  <borders count="491">
     <border>
       <left/>
       <right/>
@@ -10523,6 +10783,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10530,7 +11116,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="296">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11343,52 +11929,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="402" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="402" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="405" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="405" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="408" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="408" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="411" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="411" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="417" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="417" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="408" borderId="454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="408" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="420" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="420" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="420" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="420" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="429" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="432" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="435" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="438" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="444" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="435" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="447" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="447" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12154,7 +12788,7 @@
         <v>431</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>589</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -12228,7 +12862,7 @@
         <v>539</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>448</v>
@@ -12290,7 +12924,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
         <v>445</v>
@@ -12352,7 +12986,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -12408,7 +13042,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -12452,7 +13086,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>452</v>
@@ -12493,7 +13127,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -12531,7 +13165,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -12569,7 +13203,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -12604,7 +13238,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -12639,7 +13273,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>542</v>
@@ -12671,7 +13305,7 @@
         <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -12703,7 +13337,7 @@
         <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -12729,7 +13363,7 @@
         <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>456</v>
@@ -12752,7 +13386,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -12772,7 +13406,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -12792,7 +13426,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>378</v>
@@ -12812,7 +13446,7 @@
         <v>580</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>507</v>
@@ -12832,7 +13466,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -12852,7 +13486,7 @@
         <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>390</v>
@@ -12872,7 +13506,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>563</v>
@@ -12892,7 +13526,7 @@
         <v>449</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -12912,7 +13546,7 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>432</v>
@@ -12932,7 +13566,7 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -12949,7 +13583,7 @@
         <v>505</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -12966,7 +13600,7 @@
         <v>506</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
         <v>113</v>
@@ -12977,7 +13611,7 @@
         <v>414</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
         <v>114</v>
@@ -12988,7 +13622,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
         <v>115</v>
@@ -12999,7 +13633,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>544</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
         <v>116</v>
@@ -13010,7 +13644,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>544</v>
       </c>
       <c r="Y34" t="s">
         <v>586</v>
@@ -13021,7 +13655,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
         <v>117</v>
@@ -13032,7 +13666,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
         <v>118</v>
@@ -13043,7 +13677,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
         <v>208</v>
@@ -13054,7 +13688,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s">
         <v>119</v>
@@ -13065,7 +13699,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
         <v>336</v>
@@ -13073,7 +13707,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
         <v>436</v>
@@ -13081,7 +13715,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
         <v>567</v>
@@ -13089,7 +13723,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>582</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
         <v>391</v>
@@ -13097,7 +13731,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>287</v>
+        <v>582</v>
       </c>
       <c r="Y43" t="s">
         <v>120</v>
@@ -13105,7 +13739,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
         <v>121</v>
@@ -13113,7 +13747,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
         <v>122</v>
@@ -13121,7 +13755,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
         <v>123</v>
@@ -13129,7 +13763,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
         <v>124</v>
@@ -13137,7 +13771,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
         <v>125</v>
@@ -13145,7 +13779,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
         <v>437</v>
@@ -13153,7 +13787,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
         <v>211</v>
@@ -13161,7 +13795,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
         <v>77</v>
@@ -13169,7 +13803,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
         <v>572</v>
@@ -13177,7 +13811,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
         <v>126</v>
@@ -13185,7 +13819,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s">
         <v>127</v>
@@ -13193,7 +13827,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
         <v>128</v>
@@ -13201,7 +13835,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
         <v>520</v>
@@ -13209,7 +13843,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
         <v>502</v>
@@ -13217,7 +13851,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>583</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
         <v>129</v>
@@ -13225,7 +13859,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>292</v>
+        <v>583</v>
       </c>
       <c r="Y59" t="s">
         <v>344</v>
@@ -13233,7 +13867,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
         <v>496</v>
@@ -13241,7 +13875,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
         <v>130</v>
@@ -13249,7 +13883,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
         <v>131</v>
@@ -13257,7 +13891,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
         <v>132</v>
@@ -13265,7 +13899,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
         <v>133</v>
@@ -13273,7 +13907,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
         <v>134</v>
@@ -13281,7 +13915,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
         <v>135</v>
@@ -13289,7 +13923,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
         <v>136</v>
@@ -13297,7 +13931,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
         <v>438</v>
@@ -13305,7 +13939,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
         <v>510</v>
@@ -13313,7 +13947,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>568</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
         <v>212</v>
@@ -13321,7 +13955,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>312</v>
+        <v>568</v>
       </c>
       <c r="Y71" t="s">
         <v>387</v>
@@ -13329,7 +13963,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
         <v>439</v>
@@ -13337,7 +13971,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="Y73" t="s">
         <v>137</v>
@@ -13345,7 +13979,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
         <v>138</v>
@@ -13353,7 +13987,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="Y75" t="s">
         <v>139</v>
@@ -13361,7 +13995,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>545</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
         <v>140</v>
@@ -13369,7 +14003,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="Y77" t="s">
         <v>195</v>
@@ -13377,7 +14011,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
         <v>196</v>
@@ -13385,7 +14019,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
         <v>454</v>
@@ -13393,7 +14027,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
         <v>504</v>
@@ -13401,7 +14035,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>427</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
         <v>141</v>
@@ -13409,7 +14043,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="Y82" t="s">
         <v>142</v>
@@ -13417,7 +14051,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
         <v>143</v>
@@ -13425,7 +14059,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
         <v>532</v>
@@ -13433,7 +14067,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
         <v>144</v>
@@ -13441,7 +14075,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
         <v>145</v>
@@ -13449,7 +14083,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>569</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
         <v>197</v>
@@ -13457,7 +14091,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
+        <v>569</v>
       </c>
       <c r="Y88" t="s">
         <v>521</v>
@@ -13465,7 +14099,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
         <v>198</v>
@@ -13473,7 +14107,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
         <v>453</v>
@@ -13481,7 +14115,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
         <v>199</v>
@@ -13489,7 +14123,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
         <v>200</v>
@@ -13497,15 +14131,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y94" t="s">
         <v>213</v>
@@ -13513,7 +14147,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y95" t="s">
         <v>146</v>
@@ -13521,7 +14155,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y96" t="s">
         <v>201</v>
@@ -13529,13 +14163,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y97" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
       <c r="Y98" t="s">
         <v>441</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9580" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10137" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1842,6 +1842,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1852,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="284" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3548,8 +3551,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="454">
+  <fills count="481">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6118,8 +6222,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="491">
+  <borders count="523">
     <border>
       <left/>
       <right/>
@@ -11109,6 +11366,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11116,7 +11699,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="312">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11977,52 +12560,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="429" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="429" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="432" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="432" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="435" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="435" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="438" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="438" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="444" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="444" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="435" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="435" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="447" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="447" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="447" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="447" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="456" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="459" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="462" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="465" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="471" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="462" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="474" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="474" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12407,7 +13038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14142,7 +14773,7 @@
         <v>309</v>
       </c>
       <c r="Y94" t="s">
-        <v>213</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95">
@@ -14150,7 +14781,7 @@
         <v>293</v>
       </c>
       <c r="Y95" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
@@ -14158,7 +14789,7 @@
         <v>338</v>
       </c>
       <c r="Y96" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
@@ -14166,7 +14797,7 @@
         <v>275</v>
       </c>
       <c r="Y97" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
@@ -14174,181 +14805,186 @@
         <v>276</v>
       </c>
       <c r="Y98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>543</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>550</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>587</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>587</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -22,39 +22,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10137" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10698" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1845,6 +1846,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1871,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="284" x14ac:knownFonts="1">
+  <fonts count="300" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3652,8 +3671,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="481">
+  <fills count="508">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6375,8 +6495,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="523">
+  <borders count="555">
     <border>
       <left/>
       <right/>
@@ -11692,6 +11965,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11699,7 +12298,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="328">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12608,52 +13207,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="456" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="456" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="459" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="459" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="462" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="462" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="465" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="465" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="274" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="471" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="471" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="462" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="462" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="474" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="474" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="474" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="474" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="483" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="486" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="489" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="492" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="498" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="489" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="501" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="501" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13038,7 +13685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13063,81 +13710,84 @@
         <v>522</v>
       </c>
       <c r="E1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>551</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>513</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>394</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>410</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>411</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>395</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>412</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -13155,81 +13805,84 @@
         <v>523</v>
       </c>
       <c r="E2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>450</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>503</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>313</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>382</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>433</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>552</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>516</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>415</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>428</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>396</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>417</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>418</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>379</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>405</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>430</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -13246,76 +13899,76 @@
       <c r="D3" t="s">
         <v>562</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>494</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>363</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>514</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>332</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>553</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>517</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>429</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>397</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>419</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>380</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>406</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13329,82 +13982,82 @@
       <c r="D4" t="s">
         <v>524</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>385</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>451</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>515</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>348</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>236</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>333</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>554</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>518</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>420</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>356</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>407</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>592</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -13412,73 +14065,73 @@
       <c r="D5" t="s">
         <v>525</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>495</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>431</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>589</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>566</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>349</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>499</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>564</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>399</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>421</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
-        <v>353</v>
-      </c>
       <c r="Z5" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>374</v>
@@ -13486,1505 +14139,1513 @@
       <c r="D6" t="s">
         <v>526</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>539</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>334</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>448</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>346</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>558</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>389</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>400</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>424</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>375</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>386</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>445</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>570</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>313</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>559</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>416</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>401</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>316</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>364</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>326</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>540</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>560</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>402</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>426</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>377</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>365</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>327</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>565</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>403</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>304</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>452</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>555</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>435</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>404</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>594</v>
+      </c>
+      <c r="H11" t="s">
         <v>350</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>541</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>508</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>556</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>317</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>272</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>321</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>388</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>571</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>557</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" t="s">
         <v>339</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>261</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>434</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>551</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>314</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>323</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>509</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>513</v>
-      </c>
-      <c r="E15" t="s">
+        <v>551</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>262</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>542</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>536</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" t="s">
         <v>383</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>263</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>584</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>537</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>384</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>315</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>538</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>500</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>413</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>456</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>294</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" t="s">
         <v>254</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>295</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>378</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>411</v>
-      </c>
-      <c r="E22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
         <v>580</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>296</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>507</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>519</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>297</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>395</v>
-      </c>
-      <c r="E24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" t="s">
         <v>319</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>288</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>390</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>585</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>277</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>563</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>449</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>223</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>280</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>432</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>224</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>264</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>505</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>281</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" t="s">
+        <v>506</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
-        <v>506</v>
-      </c>
-      <c r="G30" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>414</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>544</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>567</v>
+      <c r="Z41" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>582</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>366</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>354</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>583</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>367</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>368</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>568</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>408</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>409</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>545</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>427</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>569</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10698" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11259" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1871,7 +1871,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="300" x14ac:knownFonts="1">
+  <fonts count="316" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3772,8 +3772,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="508">
+  <fills count="535">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6648,8 +6749,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="555">
+  <borders count="587">
     <border>
       <left/>
       <right/>
@@ -12291,6 +12545,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12298,7 +12878,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="344">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13255,52 +13835,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="483" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="483" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="486" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="486" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="489" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="489" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="492" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="492" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="290" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="498" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="498" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="489" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="489" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="501" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="501" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="501" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="501" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="510" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="513" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="516" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="519" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="525" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="516" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="528" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="528" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -22,7 +22,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11259" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12383" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1864,6 +1864,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1877,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="316" x14ac:knownFonts="1">
+  <fonts count="348" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3873,8 +3879,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="535">
+  <fills count="589">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6902,8 +7110,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="587">
+  <borders count="651">
     <border>
       <left/>
       <right/>
@@ -12871,6 +13385,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12878,7 +14044,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="376">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13883,52 +15049,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="510" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="510" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="513" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="513" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="516" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="516" fontId="303" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="519" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="519" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="522" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="306" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="525" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="525" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="516" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="516" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="528" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="528" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="528" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="528" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="537" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="540" fontId="318" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="543" fontId="319" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="546" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="322" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="552" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="543" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="555" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="555" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="564" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="567" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="570" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="573" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="579" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="570" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="582" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="582" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15272,7 +16534,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>598</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -15295,7 +16557,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>413</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -15315,7 +16577,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -15335,13 +16597,13 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>378</v>
+        <v>599</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -15355,7 +16617,7 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>580</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -15375,7 +16637,7 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>580</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -15395,7 +16657,7 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -15415,7 +16677,7 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -15435,7 +16697,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>449</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -15455,7 +16717,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>449</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
@@ -15475,7 +16737,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
@@ -15492,7 +16754,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>505</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
@@ -15509,7 +16771,7 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
@@ -15523,7 +16785,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -15534,7 +16796,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -15545,7 +16807,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -15556,7 +16818,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>544</v>
@@ -15567,7 +16829,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -15578,7 +16840,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -15589,7 +16851,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -15600,7 +16862,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -15611,7 +16873,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -15621,6 +16883,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -22,15 +22,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12383" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12948" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -1870,6 +1870,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1892,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="348" x14ac:knownFonts="1">
+  <fonts count="364" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4081,8 +4096,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="589">
+  <fills count="616">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7416,8 +7532,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="651">
+  <borders count="683">
     <border>
       <left/>
       <right/>
@@ -14037,6 +14306,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14044,7 +14639,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="392">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15145,52 +15740,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="564" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="564" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="567" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="567" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="570" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="570" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="573" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="573" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="338" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="579" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="579" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="570" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="570" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="582" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="582" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="582" borderId="650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="582" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="591" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="594" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="597" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="600" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="606" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="597" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="609" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="609" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15575,7 +16218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15891,7 +16534,7 @@
         <v>348</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>601</v>
       </c>
       <c r="M4" t="s">
         <v>333</v>
@@ -15927,7 +16570,7 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>602</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -15974,7 +16617,7 @@
         <v>349</v>
       </c>
       <c r="L5" t="s">
-        <v>499</v>
+        <v>236</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -16041,11 +16684,14 @@
       <c r="I6" t="s">
         <v>448</v>
       </c>
+      <c r="J6" t="s">
+        <v>600</v>
+      </c>
       <c r="K6" t="s">
         <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -16107,7 +16753,7 @@
         <v>570</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>313</v>
@@ -16166,7 +16812,7 @@
         <v>326</v>
       </c>
       <c r="L8" t="s">
-        <v>540</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -16222,7 +16868,7 @@
         <v>327</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -16266,7 +16912,7 @@
         <v>452</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -16307,7 +16953,7 @@
         <v>320</v>
       </c>
       <c r="L11" t="s">
-        <v>541</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>508</v>
@@ -16345,7 +16991,7 @@
         <v>321</v>
       </c>
       <c r="L12" t="s">
-        <v>388</v>
+        <v>541</v>
       </c>
       <c r="N12" t="s">
         <v>571</v>
@@ -16383,7 +17029,7 @@
         <v>322</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="N13" t="s">
         <v>434</v>
@@ -16418,7 +17064,7 @@
         <v>323</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>509</v>
@@ -16450,7 +17096,7 @@
         <v>262</v>
       </c>
       <c r="L15" t="s">
-        <v>542</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -16482,7 +17128,7 @@
         <v>263</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="N16" t="s">
         <v>584</v>
@@ -16514,7 +17160,7 @@
         <v>315</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -16534,13 +17180,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>598</v>
+        <v>413</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -16557,13 +17203,13 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>413</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -16577,13 +17223,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -16597,13 +17243,13 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>599</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -16617,13 +17263,13 @@
         <v>410</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>580</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
       </c>
       <c r="L22" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
       <c r="Z22" t="s">
         <v>519</v>
@@ -16637,13 +17283,13 @@
         <v>411</v>
       </c>
       <c r="F23" t="s">
-        <v>580</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>507</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -16657,13 +17303,13 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
       </c>
       <c r="L24" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>585</v>
@@ -16677,13 +17323,13 @@
         <v>395</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
       </c>
       <c r="L25" t="s">
-        <v>563</v>
+        <v>390</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -16697,13 +17343,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>563</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -16717,13 +17363,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -16737,13 +17383,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -16754,13 +17400,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>505</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>325</v>
@@ -16771,10 +17417,13 @@
         <v>412</v>
       </c>
       <c r="F30" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -16785,7 +17434,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>506</v>
+        <v>414</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -16796,7 +17445,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -16807,7 +17456,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -16818,7 +17467,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>544</v>
@@ -16829,7 +17478,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -16840,7 +17489,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -16851,7 +17500,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -16862,7 +17511,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -16873,7 +17522,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -16883,9 +17532,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
@@ -17359,186 +18005,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>441</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>543</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>597</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>442</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>587</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12948" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13513" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -1892,7 +1892,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="364" x14ac:knownFonts="1">
+  <fonts count="380" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4197,8 +4197,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="616">
+  <fills count="643">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7685,8 +7786,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="683">
+  <borders count="715">
     <border>
       <left/>
       <right/>
@@ -14632,6 +14886,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14639,7 +15219,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="408">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15788,52 +16368,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="591" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="591" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="594" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="594" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="597" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="597" fontId="351" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="600" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="600" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="354" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="606" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="606" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="597" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="597" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="609" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="609" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="609" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="609" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="618" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="621" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="624" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="627" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="633" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="624" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="636" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="636" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13513" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14645" uniqueCount="606">
   <si>
     <t>description</t>
   </si>
@@ -1885,6 +1885,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="380" x14ac:knownFonts="1">
+  <fonts count="412" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4298,8 +4301,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="643">
+  <fills count="697">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7939,8 +8144,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="715">
+  <borders count="779">
     <border>
       <left/>
       <right/>
@@ -15212,6 +15723,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15219,7 +16382,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="440">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16416,52 +17579,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="618" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="618" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="621" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="621" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="624" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="624" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="627" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="627" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="370" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="633" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="633" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="624" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="624" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="636" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="636" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="636" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="636" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="645" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="648" fontId="382" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="651" fontId="383" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="654" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="386" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="660" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="651" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="663" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="663" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="672" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="675" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="678" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="681" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="687" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="678" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="690" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="690" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16846,7 +18105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18556,7 +19815,7 @@
         <v>269</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90">
@@ -18564,7 +19823,7 @@
         <v>286</v>
       </c>
       <c r="Z90" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -18572,7 +19831,7 @@
         <v>270</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92">
@@ -18580,7 +19839,7 @@
         <v>271</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -18588,7 +19847,7 @@
         <v>303</v>
       </c>
       <c r="Z93" t="s">
-        <v>590</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -18596,7 +19855,7 @@
         <v>309</v>
       </c>
       <c r="Z94" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95">
@@ -18604,7 +19863,7 @@
         <v>293</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96">
@@ -18612,7 +19871,7 @@
         <v>338</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97">
@@ -18620,7 +19879,7 @@
         <v>275</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -18628,201 +19887,206 @@
         <v>276</v>
       </c>
       <c r="Z98" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>603</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>441</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>543</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>550</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>587</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>587</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14645" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15211" uniqueCount="606">
   <si>
     <t>description</t>
   </si>
@@ -1895,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="412" x14ac:knownFonts="1">
+  <fonts count="428" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4503,8 +4503,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="697">
+  <fills count="724">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8450,8 +8551,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="779">
+  <borders count="811">
     <border>
       <left/>
       <right/>
@@ -16375,6 +16629,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16382,7 +16962,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="456">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17675,52 +18255,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="672" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="672" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="675" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="675" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="678" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="678" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="681" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="681" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="401" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="402" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="687" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="687" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="678" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="678" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="690" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="690" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="690" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="690" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="699" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="702" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="705" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="708" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="714" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="705" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="717" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="717" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -27,7 +27,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -39,7 +39,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -47,9 +47,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15211" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15787" uniqueCount="616">
   <si>
     <t>description</t>
   </si>
@@ -1889,13 +1889,43 @@
   <si>
     <t>saveBrowserVersion(var)</t>
   </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="428" x14ac:knownFonts="1">
+  <fonts count="444" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4604,8 +4634,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="724">
+  <fills count="751">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8704,8 +8835,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="811">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -16955,6 +17239,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16962,7 +17572,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="472">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18303,52 +18913,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="699" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="699" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="702" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="702" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="705" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="705" fontId="415" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="708" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="708" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="418" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="714" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="714" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="705" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="705" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="717" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="717" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="717" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="717" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="726" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="729" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="732" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="735" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="741" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="732" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="744" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="744" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18733,7 +19391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19165,7 +19823,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>614</v>
       </c>
       <c r="AC5" t="s">
         <v>183</v>
@@ -19236,7 +19894,7 @@
         <v>443</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>184</v>
@@ -19298,7 +19956,7 @@
         <v>444</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>185</v>
@@ -19354,7 +20012,7 @@
         <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>186</v>
@@ -19406,6 +20064,9 @@
       <c r="Z9" t="s">
         <v>207</v>
       </c>
+      <c r="AB9" t="s">
+        <v>180</v>
+      </c>
       <c r="AC9" t="s">
         <v>187</v>
       </c>
@@ -19424,7 +20085,7 @@
         <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>452</v>
+        <v>606</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -19446,6 +20107,9 @@
       </c>
       <c r="Z10" t="s">
         <v>255</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>615</v>
       </c>
       <c r="AC10" t="s">
         <v>188</v>
@@ -19465,7 +20129,7 @@
         <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -19503,7 +20167,7 @@
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
         <v>541</v>
@@ -19541,7 +20205,7 @@
         <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" t="s">
         <v>388</v>
@@ -19553,7 +20217,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>607</v>
       </c>
       <c r="Z13" t="s">
         <v>324</v>
@@ -19576,7 +20240,7 @@
         <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -19588,7 +20252,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z14" t="s">
         <v>102</v>
@@ -19610,6 +20274,9 @@
       <c r="H15" t="s">
         <v>262</v>
       </c>
+      <c r="I15" t="s">
+        <v>323</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -19620,10 +20287,10 @@
         <v>536</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z15" t="s">
-        <v>103</v>
+        <v>608</v>
       </c>
       <c r="AC15" t="s">
         <v>192</v>
@@ -19652,10 +20319,10 @@
         <v>537</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="s">
         <v>193</v>
@@ -19680,8 +20347,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>250</v>
+      </c>
       <c r="Z17" t="s">
-        <v>538</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
         <v>500</v>
@@ -19707,7 +20377,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>538</v>
       </c>
       <c r="AE18" t="s">
         <v>512</v>
@@ -19727,7 +20397,7 @@
         <v>456</v>
       </c>
       <c r="Z19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>530</v>
@@ -19747,7 +20417,7 @@
         <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE20" t="s">
         <v>531</v>
@@ -19767,7 +20437,7 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
         <v>535</v>
@@ -19787,7 +20457,7 @@
         <v>599</v>
       </c>
       <c r="Z22" t="s">
-        <v>519</v>
+        <v>107</v>
       </c>
       <c r="AE22" t="s">
         <v>233</v>
@@ -19807,7 +20477,7 @@
         <v>507</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>519</v>
       </c>
       <c r="AE23" t="s">
         <v>576</v>
@@ -19827,7 +20497,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>585</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s">
         <v>577</v>
@@ -19847,7 +20517,7 @@
         <v>390</v>
       </c>
       <c r="Z25" t="s">
-        <v>109</v>
+        <v>585</v>
       </c>
       <c r="AE25" t="s">
         <v>578</v>
@@ -19867,7 +20537,7 @@
         <v>563</v>
       </c>
       <c r="Z26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
         <v>234</v>
@@ -19887,7 +20557,7 @@
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE27" t="s">
         <v>235</v>
@@ -19907,7 +20577,7 @@
         <v>432</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -19924,7 +20594,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -19941,7 +20611,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31">
@@ -19955,7 +20625,7 @@
         <v>214</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -19966,7 +20636,7 @@
         <v>273</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -19977,7 +20647,7 @@
         <v>283</v>
       </c>
       <c r="Z33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -19988,7 +20658,7 @@
         <v>544</v>
       </c>
       <c r="Z34" t="s">
-        <v>586</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -19999,7 +20669,7 @@
         <v>258</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36">
@@ -20010,7 +20680,7 @@
         <v>328</v>
       </c>
       <c r="Z36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -20021,7 +20691,7 @@
         <v>305</v>
       </c>
       <c r="Z37" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -20032,7 +20702,7 @@
         <v>259</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
@@ -20043,7 +20713,7 @@
         <v>306</v>
       </c>
       <c r="Z39" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -20051,7 +20721,7 @@
         <v>265</v>
       </c>
       <c r="Z40" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
@@ -20059,7 +20729,7 @@
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>596</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42">
@@ -20067,7 +20737,7 @@
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>391</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43">
@@ -20075,7 +20745,7 @@
         <v>582</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
@@ -20083,7 +20753,7 @@
         <v>287</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -20091,7 +20761,7 @@
         <v>298</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -20099,7 +20769,7 @@
         <v>299</v>
       </c>
       <c r="Z46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -20107,7 +20777,7 @@
         <v>341</v>
       </c>
       <c r="Z47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -20115,7 +20785,7 @@
         <v>340</v>
       </c>
       <c r="Z48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -20123,7 +20793,7 @@
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -20131,7 +20801,7 @@
         <v>318</v>
       </c>
       <c r="Z50" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51">
@@ -20139,7 +20809,7 @@
         <v>337</v>
       </c>
       <c r="Z51" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -20147,7 +20817,7 @@
         <v>366</v>
       </c>
       <c r="Z52" t="s">
-        <v>572</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -20155,7 +20825,7 @@
         <v>300</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54">
@@ -20163,7 +20833,7 @@
         <v>354</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -20171,7 +20841,7 @@
         <v>329</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -20179,7 +20849,7 @@
         <v>266</v>
       </c>
       <c r="Z56" t="s">
-        <v>520</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -20187,7 +20857,7 @@
         <v>290</v>
       </c>
       <c r="Z57" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58">
@@ -20195,7 +20865,7 @@
         <v>291</v>
       </c>
       <c r="Z58" t="s">
-        <v>129</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59">
@@ -20203,7 +20873,7 @@
         <v>583</v>
       </c>
       <c r="Z59" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -20211,7 +20881,7 @@
         <v>292</v>
       </c>
       <c r="Z60" t="s">
-        <v>496</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61">
@@ -20219,7 +20889,7 @@
         <v>301</v>
       </c>
       <c r="Z61" t="s">
-        <v>130</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62">
@@ -20227,7 +20897,7 @@
         <v>310</v>
       </c>
       <c r="Z62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -20235,7 +20905,7 @@
         <v>335</v>
       </c>
       <c r="Z63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -20243,7 +20913,7 @@
         <v>307</v>
       </c>
       <c r="Z64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -20251,7 +20921,7 @@
         <v>308</v>
       </c>
       <c r="Z65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -20259,7 +20929,7 @@
         <v>367</v>
       </c>
       <c r="Z66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -20267,7 +20937,7 @@
         <v>368</v>
       </c>
       <c r="Z67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -20275,7 +20945,7 @@
         <v>343</v>
       </c>
       <c r="Z68" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -20283,7 +20953,7 @@
         <v>311</v>
       </c>
       <c r="Z69" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70">
@@ -20291,7 +20961,7 @@
         <v>267</v>
       </c>
       <c r="Z70" t="s">
-        <v>212</v>
+        <v>510</v>
       </c>
     </row>
     <row r="71">
@@ -20299,7 +20969,7 @@
         <v>568</v>
       </c>
       <c r="Z71" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -20307,7 +20977,7 @@
         <v>312</v>
       </c>
       <c r="Z72" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73">
@@ -20315,7 +20985,7 @@
         <v>408</v>
       </c>
       <c r="Z73" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74">
@@ -20323,7 +20993,7 @@
         <v>302</v>
       </c>
       <c r="Z74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -20331,7 +21001,7 @@
         <v>409</v>
       </c>
       <c r="Z75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -20339,7 +21009,7 @@
         <v>260</v>
       </c>
       <c r="Z76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -20347,7 +21017,7 @@
         <v>545</v>
       </c>
       <c r="Z77" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -20355,7 +21025,7 @@
         <v>342</v>
       </c>
       <c r="Z78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -20363,7 +21033,7 @@
         <v>278</v>
       </c>
       <c r="Z79" t="s">
-        <v>454</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -20371,7 +21041,7 @@
         <v>284</v>
       </c>
       <c r="Z80" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81">
@@ -20379,7 +21049,7 @@
         <v>289</v>
       </c>
       <c r="Z81" t="s">
-        <v>141</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82">
@@ -20387,7 +21057,7 @@
         <v>427</v>
       </c>
       <c r="Z82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -20395,7 +21065,7 @@
         <v>330</v>
       </c>
       <c r="Z83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -20403,7 +21073,7 @@
         <v>268</v>
       </c>
       <c r="Z84" t="s">
-        <v>532</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -20411,7 +21081,7 @@
         <v>279</v>
       </c>
       <c r="Z85" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86">
@@ -20419,7 +21089,7 @@
         <v>285</v>
       </c>
       <c r="Z86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
@@ -20427,7 +21097,7 @@
         <v>274</v>
       </c>
       <c r="Z87" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -20435,7 +21105,7 @@
         <v>569</v>
       </c>
       <c r="Z88" t="s">
-        <v>521</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -20443,7 +21113,7 @@
         <v>269</v>
       </c>
       <c r="Z89" t="s">
-        <v>605</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90">
@@ -20451,7 +21121,7 @@
         <v>286</v>
       </c>
       <c r="Z90" t="s">
-        <v>198</v>
+        <v>605</v>
       </c>
     </row>
     <row r="91">
@@ -20459,7 +21129,7 @@
         <v>270</v>
       </c>
       <c r="Z91" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -20467,7 +21137,7 @@
         <v>271</v>
       </c>
       <c r="Z92" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93">
@@ -20475,7 +21145,7 @@
         <v>303</v>
       </c>
       <c r="Z93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -20483,7 +21153,7 @@
         <v>309</v>
       </c>
       <c r="Z94" t="s">
-        <v>590</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -20491,7 +21161,7 @@
         <v>293</v>
       </c>
       <c r="Z95" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96">
@@ -20499,7 +21169,7 @@
         <v>338</v>
       </c>
       <c r="Z96" t="s">
-        <v>213</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97">
@@ -20507,7 +21177,7 @@
         <v>275</v>
       </c>
       <c r="Z97" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -20515,206 +21185,236 @@
         <v>276</v>
       </c>
       <c r="Z98" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>603</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>441</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>597</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>148</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>152</v>
+        <v>610</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>155</v>
+        <v>611</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>442</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>587</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>165</v>
+        <v>587</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -27,7 +27,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15787" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16364" uniqueCount="618">
   <si>
     <t>description</t>
   </si>
@@ -1919,13 +1919,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="444" x14ac:knownFonts="1">
+  <fonts count="460" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4735,8 +4741,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="751">
+  <fills count="778">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8988,8 +9095,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="843">
+  <borders count="875">
     <border>
       <left/>
       <right/>
@@ -17565,6 +17825,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17572,7 +18158,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="488">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18961,52 +19547,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="726" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="726" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="729" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="729" fontId="430" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="732" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="732" fontId="431" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="735" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="735" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="434" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="741" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="741" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="732" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="732" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="744" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="744" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="744" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="744" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="753" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="756" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="759" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="762" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="768" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="759" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="771" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="771" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20085,7 +20719,7 @@
         <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -20129,7 +20763,7 @@
         <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>452</v>
+        <v>617</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -20167,7 +20801,7 @@
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
       <c r="L12" t="s">
         <v>541</v>
@@ -20205,7 +20839,7 @@
         <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>388</v>
@@ -20240,7 +20874,7 @@
         <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -20275,7 +20909,7 @@
         <v>262</v>
       </c>
       <c r="I15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -20308,6 +20942,9 @@
       </c>
       <c r="H16" t="s">
         <v>263</v>
+      </c>
+      <c r="I16" t="s">
+        <v>323</v>
       </c>
       <c r="L16" t="s">
         <v>542</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -29,7 +29,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -46,16 +46,17 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16364" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17534" uniqueCount="627">
   <si>
     <t>description</t>
   </si>
@@ -1925,13 +1926,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="460" x14ac:knownFonts="1">
+  <fonts count="492" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4842,8 +4870,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="778">
+  <fills count="832">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9248,8 +9478,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="875">
+  <borders count="939">
     <border>
       <left/>
       <right/>
@@ -18151,6 +18687,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18158,7 +19346,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="488">
+  <cellXfs count="520">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19595,52 +20783,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="753" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="753" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="756" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="756" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="759" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="759" fontId="447" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="762" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="762" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="449" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="450" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="768" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="768" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="759" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="759" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="771" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="771" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="771" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="771" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="780" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="783" fontId="462" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="786" fontId="463" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="789" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="465" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="466" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="795" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="786" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="798" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="798" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="789" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="789" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="807" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="810" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="813" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="816" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="822" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="813" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="825" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="825" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20025,7 +21309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20113,21 +21397,24 @@
         <v>395</v>
       </c>
       <c r="Z1" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>412</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -20163,7 +21450,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>503</v>
+        <v>625</v>
       </c>
       <c r="L2" t="s">
         <v>313</v>
@@ -20208,21 +21495,24 @@
         <v>405</v>
       </c>
       <c r="Z2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>430</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -20294,21 +21584,24 @@
         <v>406</v>
       </c>
       <c r="Z3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>362</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>182</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -20377,21 +21670,24 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA4" t="s">
         <v>602</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>422</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -20451,21 +21747,24 @@
         <v>357</v>
       </c>
       <c r="Z5" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA5" t="s">
         <v>595</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>614</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>183</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>423</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -20495,7 +21794,7 @@
         <v>600</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>626</v>
       </c>
       <c r="L6" t="s">
         <v>499</v>
@@ -20522,21 +21821,24 @@
         <v>359</v>
       </c>
       <c r="Z6" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>443</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>184</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>424</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -20557,7 +21859,7 @@
         <v>445</v>
       </c>
       <c r="K7" t="s">
-        <v>570</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -20583,22 +21885,22 @@
       <c r="X7" t="s">
         <v>358</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>444</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>425</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20618,6 +21920,9 @@
       <c r="I8" t="s">
         <v>326</v>
       </c>
+      <c r="K8" t="s">
+        <v>570</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -20639,22 +21944,22 @@
       <c r="X8" t="s">
         <v>360</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>426</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>574</v>
       </c>
     </row>
@@ -20695,16 +22000,16 @@
       <c r="X9" t="s">
         <v>361</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>575</v>
       </c>
     </row>
@@ -20739,16 +22044,16 @@
       <c r="U10" t="s">
         <v>404</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>615</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -20780,13 +22085,13 @@
       <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -20818,13 +22123,13 @@
       <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -20853,13 +22158,13 @@
       <c r="S13" t="s">
         <v>607</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>324</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>511</v>
       </c>
     </row>
@@ -20888,13 +22193,13 @@
       <c r="S14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>528</v>
       </c>
     </row>
@@ -20923,13 +22228,13 @@
       <c r="S15" t="s">
         <v>248</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>608</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>529</v>
       </c>
     </row>
@@ -20958,13 +22263,13 @@
       <c r="S16" t="s">
         <v>249</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>103</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>533</v>
       </c>
     </row>
@@ -20987,13 +22292,13 @@
       <c r="S17" t="s">
         <v>250</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>500</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>534</v>
       </c>
     </row>
@@ -21013,10 +22318,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>538</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>512</v>
       </c>
     </row>
@@ -21033,10 +22338,10 @@
       <c r="L19" t="s">
         <v>456</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>530</v>
       </c>
     </row>
@@ -21053,10 +22358,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>531</v>
       </c>
     </row>
@@ -21073,10 +22378,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>535</v>
       </c>
     </row>
@@ -21093,10 +22398,10 @@
       <c r="L22" t="s">
         <v>599</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>107</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -21113,10 +22418,10 @@
       <c r="L23" t="s">
         <v>507</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>519</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>576</v>
       </c>
     </row>
@@ -21133,10 +22438,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>577</v>
       </c>
     </row>
@@ -21153,16 +22458,16 @@
       <c r="L25" t="s">
         <v>390</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>585</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>618</v>
       </c>
       <c r="F26" t="s">
         <v>449</v>
@@ -21173,16 +22478,16 @@
       <c r="L26" t="s">
         <v>563</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -21193,16 +22498,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>224</v>
@@ -21213,13 +22518,13 @@
       <c r="L28" t="s">
         <v>432</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>505</v>
@@ -21230,13 +22535,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>506</v>
@@ -21247,13 +22552,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="F31" t="s">
         <v>414</v>
@@ -21261,18 +22566,21 @@
       <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -21283,7 +22591,7 @@
       <c r="H33" t="s">
         <v>283</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -21294,7 +22602,7 @@
       <c r="H34" t="s">
         <v>544</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -21305,7 +22613,7 @@
       <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>586</v>
       </c>
     </row>
@@ -21316,7 +22624,7 @@
       <c r="H36" t="s">
         <v>328</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -21327,7 +22635,7 @@
       <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>118</v>
       </c>
     </row>
@@ -21338,7 +22646,7 @@
       <c r="H38" t="s">
         <v>259</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>208</v>
       </c>
     </row>
@@ -21349,7 +22657,7 @@
       <c r="H39" t="s">
         <v>306</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>119</v>
       </c>
     </row>
@@ -21357,7 +22665,7 @@
       <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>336</v>
       </c>
     </row>
@@ -21365,7 +22673,7 @@
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>436</v>
       </c>
     </row>
@@ -21373,7 +22681,7 @@
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>596</v>
       </c>
     </row>
@@ -21381,7 +22689,7 @@
       <c r="H43" t="s">
         <v>582</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>391</v>
       </c>
     </row>
@@ -21389,7 +22697,7 @@
       <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>120</v>
       </c>
     </row>
@@ -21397,7 +22705,7 @@
       <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -21405,7 +22713,7 @@
       <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -21413,7 +22721,7 @@
       <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -21421,7 +22729,7 @@
       <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -21429,7 +22737,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -21437,7 +22745,7 @@
       <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>437</v>
       </c>
     </row>
@@ -21445,7 +22753,7 @@
       <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -21453,7 +22761,7 @@
       <c r="H52" t="s">
         <v>366</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21461,7 +22769,7 @@
       <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>572</v>
       </c>
     </row>
@@ -21469,7 +22777,7 @@
       <c r="H54" t="s">
         <v>354</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>126</v>
       </c>
     </row>
@@ -21477,7 +22785,7 @@
       <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21485,7 +22793,7 @@
       <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -21493,7 +22801,7 @@
       <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>520</v>
       </c>
     </row>
@@ -21501,7 +22809,7 @@
       <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>502</v>
       </c>
     </row>
@@ -21509,7 +22817,7 @@
       <c r="H59" t="s">
         <v>583</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -21517,7 +22825,7 @@
       <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>344</v>
       </c>
     </row>
@@ -21525,7 +22833,7 @@
       <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>496</v>
       </c>
     </row>
@@ -21533,7 +22841,7 @@
       <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -21541,7 +22849,7 @@
       <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -21549,7 +22857,7 @@
       <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -21557,7 +22865,7 @@
       <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -21565,7 +22873,7 @@
       <c r="H66" t="s">
         <v>367</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -21573,7 +22881,7 @@
       <c r="H67" t="s">
         <v>368</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -21581,7 +22889,7 @@
       <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21589,7 +22897,7 @@
       <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>438</v>
       </c>
     </row>
@@ -21597,7 +22905,7 @@
       <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>510</v>
       </c>
     </row>
@@ -21605,7 +22913,7 @@
       <c r="H71" t="s">
         <v>568</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>212</v>
       </c>
     </row>
@@ -21613,7 +22921,7 @@
       <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>387</v>
       </c>
     </row>
@@ -21621,7 +22929,7 @@
       <c r="H73" t="s">
         <v>408</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>439</v>
       </c>
     </row>
@@ -21629,7 +22937,7 @@
       <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>137</v>
       </c>
     </row>
@@ -21637,7 +22945,7 @@
       <c r="H75" t="s">
         <v>409</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -21645,7 +22953,7 @@
       <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -21653,7 +22961,7 @@
       <c r="H77" t="s">
         <v>545</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -21661,7 +22969,7 @@
       <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>195</v>
       </c>
     </row>
@@ -21669,7 +22977,7 @@
       <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -21677,7 +22985,7 @@
       <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>454</v>
       </c>
     </row>
@@ -21685,7 +22993,7 @@
       <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>504</v>
       </c>
     </row>
@@ -21693,7 +23001,7 @@
       <c r="H82" t="s">
         <v>427</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>141</v>
       </c>
     </row>
@@ -21701,7 +23009,7 @@
       <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -21709,7 +23017,7 @@
       <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -21717,7 +23025,7 @@
       <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>532</v>
       </c>
     </row>
@@ -21725,7 +23033,7 @@
       <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21733,7 +23041,7 @@
       <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>145</v>
       </c>
     </row>
@@ -21741,7 +23049,7 @@
       <c r="H88" t="s">
         <v>569</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -21749,7 +23057,7 @@
       <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>521</v>
       </c>
     </row>
@@ -21757,7 +23065,7 @@
       <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>605</v>
       </c>
     </row>
@@ -21765,7 +23073,7 @@
       <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>198</v>
       </c>
     </row>
@@ -21773,7 +23081,7 @@
       <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>453</v>
       </c>
     </row>
@@ -21781,7 +23089,7 @@
       <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -21789,7 +23097,7 @@
       <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>200</v>
       </c>
     </row>
@@ -21797,7 +23105,7 @@
       <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>590</v>
       </c>
     </row>
@@ -21805,7 +23113,7 @@
       <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>591</v>
       </c>
     </row>
@@ -21813,7 +23121,7 @@
       <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>213</v>
       </c>
     </row>
@@ -21821,237 +23129,237 @@
       <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -40,23 +40,24 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17534" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18121" uniqueCount="637">
   <si>
     <t>description</t>
   </si>
@@ -1953,13 +1954,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="492" x14ac:knownFonts="1">
+  <fonts count="508" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5072,8 +5103,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="832">
+  <fills count="859">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9784,8 +9916,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="939">
+  <borders count="971">
     <border>
       <left/>
       <right/>
@@ -19339,6 +19624,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19346,7 +19957,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="520">
+  <cellXfs count="536">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20879,52 +21490,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="807" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="807" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="810" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="810" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="813" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="813" fontId="479" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="816" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="816" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="481" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="482" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="822" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="822" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="813" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="813" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="825" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="825" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="825" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="825" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="834" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="837" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="840" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="843" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="849" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="840" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="852" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="852" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21309,7 +21968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21397,7 +22056,7 @@
         <v>395</v>
       </c>
       <c r="Z1" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -21477,7 +22136,7 @@
         <v>251</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>629</v>
       </c>
       <c r="U2" t="s">
         <v>396</v>
@@ -21495,7 +22154,7 @@
         <v>405</v>
       </c>
       <c r="Z2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -21569,7 +22228,7 @@
         <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>630</v>
       </c>
       <c r="U3" t="s">
         <v>397</v>
@@ -21584,7 +22243,7 @@
         <v>406</v>
       </c>
       <c r="Z3" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -21655,7 +22314,7 @@
         <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U4" t="s">
         <v>398</v>
@@ -21670,7 +22329,7 @@
         <v>407</v>
       </c>
       <c r="Z4" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="AA4" t="s">
         <v>602</v>
@@ -21735,7 +22394,7 @@
         <v>240</v>
       </c>
       <c r="T5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U5" t="s">
         <v>399</v>
@@ -21745,9 +22404,6 @@
       </c>
       <c r="X5" t="s">
         <v>357</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>623</v>
       </c>
       <c r="AA5" t="s">
         <v>595</v>
@@ -21812,16 +22468,13 @@
         <v>241</v>
       </c>
       <c r="T6" t="s">
-        <v>389</v>
+        <v>217</v>
       </c>
       <c r="U6" t="s">
         <v>400</v>
       </c>
       <c r="X6" t="s">
         <v>359</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>624</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -21877,7 +22530,7 @@
         <v>242</v>
       </c>
       <c r="T7" t="s">
-        <v>416</v>
+        <v>218</v>
       </c>
       <c r="U7" t="s">
         <v>401</v>
@@ -21938,6 +22591,9 @@
       <c r="S8" t="s">
         <v>243</v>
       </c>
+      <c r="T8" t="s">
+        <v>389</v>
+      </c>
       <c r="U8" t="s">
         <v>402</v>
       </c>
@@ -21994,6 +22650,9 @@
       <c r="S9" t="s">
         <v>244</v>
       </c>
+      <c r="T9" t="s">
+        <v>416</v>
+      </c>
       <c r="U9" t="s">
         <v>403</v>
       </c>
@@ -22115,7 +22774,7 @@
         <v>571</v>
       </c>
       <c r="O12" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -22152,6 +22811,9 @@
       <c r="N13" t="s">
         <v>434</v>
       </c>
+      <c r="O13" t="s">
+        <v>557</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -22229,7 +22891,7 @@
         <v>248</v>
       </c>
       <c r="AA15" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="AD15" t="s">
         <v>192</v>
@@ -22264,7 +22926,7 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>608</v>
       </c>
       <c r="AD16" t="s">
         <v>193</v>
@@ -22293,7 +22955,7 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>500</v>
@@ -22319,7 +22981,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>538</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>512</v>
@@ -22339,7 +23001,7 @@
         <v>456</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>538</v>
       </c>
       <c r="AF19" t="s">
         <v>530</v>
@@ -22359,7 +23021,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>531</v>
@@ -22379,7 +23041,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>535</v>
@@ -22399,7 +23061,7 @@
         <v>599</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>233</v>
@@ -22419,7 +23081,7 @@
         <v>507</v>
       </c>
       <c r="AA23" t="s">
-        <v>519</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>576</v>
@@ -22439,7 +23101,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>519</v>
       </c>
       <c r="AF24" t="s">
         <v>577</v>
@@ -22459,7 +23121,7 @@
         <v>390</v>
       </c>
       <c r="AA25" t="s">
-        <v>585</v>
+        <v>108</v>
       </c>
       <c r="AF25" t="s">
         <v>578</v>
@@ -22467,7 +23129,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F26" t="s">
         <v>449</v>
@@ -22479,7 +23141,7 @@
         <v>563</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>585</v>
       </c>
       <c r="AF26" t="s">
         <v>234</v>
@@ -22499,7 +23161,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s">
         <v>235</v>
@@ -22519,7 +23181,7 @@
         <v>432</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -22536,7 +23198,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -22553,7 +23215,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -22567,7 +23229,7 @@
         <v>214</v>
       </c>
       <c r="AA31" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
@@ -22581,7 +23243,7 @@
         <v>273</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -22592,7 +23254,7 @@
         <v>283</v>
       </c>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -22603,7 +23265,7 @@
         <v>544</v>
       </c>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -22614,7 +23276,7 @@
         <v>258</v>
       </c>
       <c r="AA35" t="s">
-        <v>586</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -22625,7 +23287,7 @@
         <v>328</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37">
@@ -22636,7 +23298,7 @@
         <v>305</v>
       </c>
       <c r="AA37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -22647,7 +23309,7 @@
         <v>259</v>
       </c>
       <c r="AA38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -22658,7 +23320,7 @@
         <v>306</v>
       </c>
       <c r="AA39" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
@@ -22666,7 +23328,7 @@
         <v>265</v>
       </c>
       <c r="AA40" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -22674,7 +23336,7 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
@@ -22682,7 +23344,7 @@
         <v>210</v>
       </c>
       <c r="AA42" t="s">
-        <v>596</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43">
@@ -22690,7 +23352,7 @@
         <v>582</v>
       </c>
       <c r="AA43" t="s">
-        <v>391</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44">
@@ -22698,7 +23360,7 @@
         <v>287</v>
       </c>
       <c r="AA44" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45">
@@ -22706,7 +23368,7 @@
         <v>298</v>
       </c>
       <c r="AA45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -22714,7 +23376,7 @@
         <v>299</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -22722,7 +23384,7 @@
         <v>341</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -22730,7 +23392,7 @@
         <v>340</v>
       </c>
       <c r="AA48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -22738,7 +23400,7 @@
         <v>209</v>
       </c>
       <c r="AA49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -22746,7 +23408,7 @@
         <v>318</v>
       </c>
       <c r="AA50" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -22754,7 +23416,7 @@
         <v>337</v>
       </c>
       <c r="AA51" t="s">
-        <v>211</v>
+        <v>635</v>
       </c>
     </row>
     <row r="52">
@@ -22762,7 +23424,7 @@
         <v>366</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
@@ -22770,7 +23432,7 @@
         <v>300</v>
       </c>
       <c r="AA53" t="s">
-        <v>572</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -22778,7 +23440,7 @@
         <v>354</v>
       </c>
       <c r="AA54" t="s">
-        <v>126</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55">
@@ -22786,7 +23448,7 @@
         <v>329</v>
       </c>
       <c r="AA55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -22794,7 +23456,7 @@
         <v>266</v>
       </c>
       <c r="AA56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -22802,7 +23464,7 @@
         <v>290</v>
       </c>
       <c r="AA57" t="s">
-        <v>520</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -22810,7 +23472,7 @@
         <v>291</v>
       </c>
       <c r="AA58" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59">
@@ -22818,7 +23480,7 @@
         <v>583</v>
       </c>
       <c r="AA59" t="s">
-        <v>129</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60">
@@ -22826,7 +23488,7 @@
         <v>292</v>
       </c>
       <c r="AA60" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -22834,7 +23496,7 @@
         <v>301</v>
       </c>
       <c r="AA61" t="s">
-        <v>496</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62">
@@ -22842,7 +23504,7 @@
         <v>310</v>
       </c>
       <c r="AA62" t="s">
-        <v>130</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63">
@@ -22850,7 +23512,7 @@
         <v>335</v>
       </c>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -22858,7 +23520,7 @@
         <v>307</v>
       </c>
       <c r="AA64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -22866,7 +23528,7 @@
         <v>308</v>
       </c>
       <c r="AA65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -22874,7 +23536,7 @@
         <v>367</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -22882,7 +23544,7 @@
         <v>368</v>
       </c>
       <c r="AA67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -22890,7 +23552,7 @@
         <v>343</v>
       </c>
       <c r="AA68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -22898,7 +23560,7 @@
         <v>311</v>
       </c>
       <c r="AA69" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -22906,7 +23568,7 @@
         <v>267</v>
       </c>
       <c r="AA70" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71">
@@ -22914,7 +23576,7 @@
         <v>568</v>
       </c>
       <c r="AA71" t="s">
-        <v>212</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72">
@@ -22922,7 +23584,7 @@
         <v>312</v>
       </c>
       <c r="AA72" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -22930,7 +23592,7 @@
         <v>408</v>
       </c>
       <c r="AA73" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74">
@@ -22938,7 +23600,7 @@
         <v>302</v>
       </c>
       <c r="AA74" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75">
@@ -22946,7 +23608,7 @@
         <v>409</v>
       </c>
       <c r="AA75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -22954,7 +23616,7 @@
         <v>260</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -22962,7 +23624,7 @@
         <v>545</v>
       </c>
       <c r="AA77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -22970,7 +23632,7 @@
         <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -22978,7 +23640,7 @@
         <v>278</v>
       </c>
       <c r="AA79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -22986,7 +23648,7 @@
         <v>284</v>
       </c>
       <c r="AA80" t="s">
-        <v>454</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -22994,7 +23656,7 @@
         <v>289</v>
       </c>
       <c r="AA81" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82">
@@ -23002,7 +23664,7 @@
         <v>427</v>
       </c>
       <c r="AA82" t="s">
-        <v>141</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83">
@@ -23010,7 +23672,7 @@
         <v>330</v>
       </c>
       <c r="AA83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -23018,7 +23680,7 @@
         <v>268</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -23026,7 +23688,7 @@
         <v>279</v>
       </c>
       <c r="AA85" t="s">
-        <v>532</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -23034,7 +23696,7 @@
         <v>285</v>
       </c>
       <c r="AA86" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87">
@@ -23042,7 +23704,7 @@
         <v>274</v>
       </c>
       <c r="AA87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -23050,7 +23712,7 @@
         <v>569</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
@@ -23058,7 +23720,7 @@
         <v>269</v>
       </c>
       <c r="AA89" t="s">
-        <v>521</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -23066,7 +23728,7 @@
         <v>286</v>
       </c>
       <c r="AA90" t="s">
-        <v>605</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91">
@@ -23074,7 +23736,7 @@
         <v>270</v>
       </c>
       <c r="AA91" t="s">
-        <v>198</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92">
@@ -23082,7 +23744,7 @@
         <v>271</v>
       </c>
       <c r="AA92" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -23090,7 +23752,7 @@
         <v>303</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94">
@@ -23098,7 +23760,7 @@
         <v>309</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -23106,7 +23768,7 @@
         <v>293</v>
       </c>
       <c r="AA95" t="s">
-        <v>590</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -23114,7 +23776,7 @@
         <v>338</v>
       </c>
       <c r="AA96" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97">
@@ -23122,7 +23784,7 @@
         <v>275</v>
       </c>
       <c r="AA97" t="s">
-        <v>213</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98">
@@ -23130,236 +23792,241 @@
         <v>276</v>
       </c>
       <c r="AA98" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>440</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>603</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>441</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>609</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>609</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>543</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>550</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>610</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>150</v>
+        <v>610</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>611</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>152</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>612</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>158</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>161</v>
+        <v>636</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>587</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>162</v>
+        <v>587</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>613</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>166</v>
+        <v>613</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89735826-647A-4561-9513-4DAE056F1DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{89735826-647A-4561-9513-4DAE056F1DF3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="fallback_true_multi_iter" sheetId="2" r:id="rId2"/>
-    <sheet name="fallback_false_multi_iter" sheetId="5" r:id="rId3"/>
-    <sheet name="fallback_false_split_iter" sheetId="6" r:id="rId4"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="fallback_true_multi_iter" r:id="rId2" sheetId="2"/>
+    <sheet name="fallback_false_multi_iter" r:id="rId3" sheetId="5"/>
+    <sheet name="fallback_false_split_iter" r:id="rId4" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -31,7 +31,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -41,7 +41,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -49,15 +49,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="668">
   <si>
     <t>description</t>
   </si>
@@ -1917,13 +1917,173 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2006,8 +2166,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2024,6 +2398,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2067,158 +2713,260 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="74">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -2312,7 +3060,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2337,10 +3085,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2375,7 +3123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2410,7 +3158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2504,21 +3252,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2535,7 +3283,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2587,26 +3335,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2686,25 +3434,28 @@
         <v>605</v>
       </c>
       <c r="AA1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>407</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>365</v>
       </c>
@@ -2784,25 +3535,28 @@
         <v>609</v>
       </c>
       <c r="AA2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>425</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>490</v>
       </c>
@@ -2873,25 +3627,28 @@
         <v>610</v>
       </c>
       <c r="AA3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>358</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>514</v>
       </c>
@@ -2959,25 +3716,28 @@
         <v>611</v>
       </c>
       <c r="AA4" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB4" t="s">
         <v>588</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>417</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>579</v>
       </c>
@@ -3033,25 +3793,28 @@
         <v>353</v>
       </c>
       <c r="AA5" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB5" t="s">
         <v>582</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>599</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>418</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3104,25 +3867,28 @@
         <v>355</v>
       </c>
       <c r="AA6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>436</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>419</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3166,25 +3932,28 @@
         <v>354</v>
       </c>
       <c r="AA7" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>437</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>420</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3228,25 +3997,28 @@
         <v>356</v>
       </c>
       <c r="AA8" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>421</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3287,19 +4059,22 @@
         <v>357</v>
       </c>
       <c r="AA9" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3331,19 +4106,22 @@
         <v>399</v>
       </c>
       <c r="AA10" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>600</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3369,19 +4147,22 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>622</v>
       </c>
       <c r="AA11" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3407,19 +4188,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3445,19 +4229,22 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>592</v>
+        <v>247</v>
       </c>
       <c r="AA13" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3480,19 +4267,22 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>592</v>
       </c>
       <c r="AA14" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>543</v>
       </c>
@@ -3515,19 +4305,22 @@
         <v>528</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB15" t="s">
         <v>612</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>505</v>
       </c>
@@ -3550,19 +4343,22 @@
         <v>529</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA16" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB16" t="s">
         <v>593</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -3579,19 +4375,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>493</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3607,19 +4406,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>250</v>
+      </c>
       <c r="AA18" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>616</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -3628,18 +4433,21 @@
         <v>449</v>
       </c>
       <c r="AA19" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB19" t="s">
         <v>530</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>617</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -3648,18 +4456,21 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>618</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -3668,18 +4479,21 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>569</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -3688,18 +4502,21 @@
         <v>585</v>
       </c>
       <c r="AA22" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -3708,18 +4525,21 @@
         <v>499</v>
       </c>
       <c r="AA23" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -3728,18 +4548,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB24" t="s">
         <v>511</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>619</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -3748,946 +4571,1039 @@
         <v>385</v>
       </c>
       <c r="AA25" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>605</v>
       </c>
       <c r="F26" t="s">
-        <v>442</v>
+        <v>569</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="AA26" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB26" t="s">
         <v>573</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>615</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>554</v>
       </c>
       <c r="AA27" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>427</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>497</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="AA29" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>407</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>497</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>498</v>
       </c>
       <c r="H34" t="s">
         <v>536</v>
       </c>
       <c r="AA34" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB36" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>570</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>620</v>
+      </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>571</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>558</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>403</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>404</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>537</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AA81" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>422</v>
       </c>
-      <c r="AA82" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AA86" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>559</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AA90" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AA91" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AA93" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AA96" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AA97" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="22.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="51.5" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="21.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="54.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="22.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="51.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4718,7 +5634,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -4739,7 +5655,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4756,7 +5672,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -4801,7 +5717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>450</v>
       </c>
@@ -4826,7 +5742,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4849,7 +5765,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>464</v>
       </c>
@@ -4880,7 +5796,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4907,7 +5823,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4934,7 +5850,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4961,7 +5877,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4988,7 +5904,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -5015,7 +5931,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -5042,7 +5958,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -5069,7 +5985,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -5096,7 +6012,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -5123,7 +6039,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>465</v>
       </c>
@@ -5152,7 +6068,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -5177,7 +6093,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -5202,7 +6118,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13" t="s">
@@ -5227,7 +6143,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13" t="s">
@@ -5252,7 +6168,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
         <v>484</v>
@@ -5279,7 +6195,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>484</v>
@@ -5306,7 +6222,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5323,7 +6239,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5340,7 +6256,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5357,7 +6273,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5374,7 +6290,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5391,7 +6307,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5408,7 +6324,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -5425,7 +6341,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5442,7 +6358,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5459,7 +6375,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5476,7 +6392,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5493,7 +6409,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5510,7 +6426,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5527,7 +6443,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5544,7 +6460,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5561,7 +6477,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5578,7 +6494,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5595,7 +6511,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5612,7 +6528,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5629,7 +6545,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5646,7 +6562,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5663,7 +6579,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5680,7 +6596,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5697,7 +6613,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5714,7 +6630,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5731,7 +6647,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5748,7 +6664,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5766,7 +6682,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5774,55 +6690,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96146A54-13CA-A64D-8603-D948CB7CC707}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96146A54-13CA-A64D-8603-D948CB7CC707}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="22.125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="51.5" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="54.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.5" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="22.125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="51.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -5853,7 +6769,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -5874,7 +6790,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5891,7 +6807,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5936,7 +6852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>450</v>
       </c>
@@ -5961,7 +6877,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -5984,7 +6900,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>464</v>
       </c>
@@ -6015,7 +6931,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -6042,7 +6958,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -6069,7 +6985,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -6096,7 +7012,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -6123,7 +7039,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -6150,7 +7066,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -6177,7 +7093,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -6204,7 +7120,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -6231,7 +7147,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -6258,7 +7174,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>465</v>
       </c>
@@ -6287,7 +7203,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -6312,7 +7228,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -6337,7 +7253,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="29"/>
       <c r="C20" s="13" t="s">
@@ -6362,7 +7278,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="29"/>
       <c r="C21" s="13" t="s">
@@ -6387,7 +7303,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
         <v>484</v>
@@ -6414,7 +7330,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>484</v>
@@ -6441,7 +7357,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6458,7 +7374,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6475,7 +7391,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6492,7 +7408,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6509,7 +7425,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -6526,7 +7442,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6543,7 +7459,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13"/>
@@ -6560,7 +7476,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6577,7 +7493,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6594,7 +7510,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -6611,7 +7527,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6628,7 +7544,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6645,7 +7561,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -6662,7 +7578,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6679,7 +7595,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6696,7 +7612,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6713,7 +7629,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6730,7 +7646,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6747,7 +7663,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6764,7 +7680,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6781,7 +7697,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6798,7 +7714,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6815,7 +7731,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6832,7 +7748,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6849,7 +7765,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6866,7 +7782,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6883,7 +7799,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6901,7 +7817,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6909,55 +7825,55 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{55211087-9AD2-5146-87F1-775A54CF43BD}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{55211087-9AD2-5146-87F1-775A54CF43BD}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{158600E9-6A1E-0A48-B8AA-B8EB00601B35}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{158600E9-6A1E-0A48-B8AA-B8EB00601B35}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4BF323-0F08-994E-A9DA-5DC6D7B4BEE6}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4BF323-0F08-994E-A9DA-5DC6D7B4BEE6}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="22.125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="51.5" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="54.875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.5" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="22.125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="51.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -6988,7 +7904,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -7009,7 +7925,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -7026,7 +7942,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -7071,7 +7987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>450</v>
       </c>
@@ -7096,7 +8012,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -7119,7 +8035,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -7142,7 +8058,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>464</v>
       </c>
@@ -7173,7 +8089,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -7200,7 +8116,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -7227,7 +8143,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>479</v>
@@ -7256,7 +8172,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>479</v>
@@ -7285,7 +8201,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -7312,7 +8228,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="31" t="s">
         <v>480</v>
@@ -7341,7 +8257,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="31" t="s">
         <v>480</v>
@@ -7370,7 +8286,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="26.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="31"/>
       <c r="C16" s="13" t="s">
@@ -7397,7 +8313,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>478</v>
@@ -7424,7 +8340,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>465</v>
       </c>
@@ -7453,7 +8369,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -7478,7 +8394,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -7503,7 +8419,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -7528,7 +8444,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
         <v>477</v>
@@ -7555,7 +8471,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>484</v>
@@ -7582,7 +8498,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>484</v>
@@ -7609,7 +8525,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="C25" s="13"/>
       <c r="D25" s="7"/>
@@ -7625,7 +8541,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -7642,7 +8558,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -7659,7 +8575,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -7676,7 +8592,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -7693,7 +8609,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -7710,7 +8626,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13"/>
@@ -7727,7 +8643,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -7744,7 +8660,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -7761,7 +8677,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -7778,7 +8694,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -7795,7 +8711,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -7812,7 +8728,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -7829,7 +8745,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -7846,7 +8762,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -7863,7 +8779,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -7880,7 +8796,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -7897,7 +8813,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -7914,7 +8830,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -7931,7 +8847,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -7948,7 +8864,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -7965,7 +8881,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -7982,7 +8898,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -7999,7 +8915,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -8016,7 +8932,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -8033,7 +8949,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -8051,7 +8967,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8059,24 +8975,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{C66AF19A-DA7E-D24A-814D-A134EA537FDB}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C50" type="list" xr:uid="{C66AF19A-DA7E-D24A-814D-A134EA537FDB}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{AA14C883-0B8D-4F42-9E29-1B20BD6A4A38}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{AA14C883-0B8D-4F42-9E29-1B20BD6A4A38}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -23,13 +23,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -49,15 +49,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="670">
   <si>
     <t>description</t>
   </si>
@@ -2076,6 +2076,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2089,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2380,8 +2386,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2398,6 +2511,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2718,7 +2967,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2910,55 +3159,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3343,7 +3643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3434,24 +3734,21 @@
         <v>605</v>
       </c>
       <c r="AA1" t="s">
-        <v>615</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="AF1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3484,7 +3781,7 @@
         <v>443</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>669</v>
       </c>
       <c r="K2" t="s">
         <v>603</v>
@@ -3535,24 +3832,21 @@
         <v>609</v>
       </c>
       <c r="AA2" t="s">
-        <v>623</v>
+        <v>96</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AE2" t="s">
-        <v>181</v>
+        <v>425</v>
       </c>
       <c r="AF2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG2" t="s">
         <v>519</v>
       </c>
     </row>
@@ -3582,7 +3876,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>346</v>
@@ -3627,24 +3921,21 @@
         <v>610</v>
       </c>
       <c r="AA3" t="s">
-        <v>624</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="AE3" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3671,7 +3962,7 @@
         <v>444</v>
       </c>
       <c r="J4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K4" t="s">
         <v>347</v>
@@ -3716,24 +4007,21 @@
         <v>611</v>
       </c>
       <c r="AA4" t="s">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="AB4" t="s">
-        <v>588</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AE4" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AF4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3760,7 +4048,7 @@
         <v>448</v>
       </c>
       <c r="J5" t="s">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="K5" t="s">
         <v>348</v>
@@ -3793,24 +4081,21 @@
         <v>353</v>
       </c>
       <c r="AA5" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="AB5" t="s">
-        <v>582</v>
+        <v>172</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>599</v>
       </c>
       <c r="AD5" t="s">
-        <v>599</v>
+        <v>183</v>
       </c>
       <c r="AE5" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AF5" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3837,7 +4122,7 @@
         <v>441</v>
       </c>
       <c r="J6" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="K6" t="s">
         <v>604</v>
@@ -3867,24 +4152,21 @@
         <v>355</v>
       </c>
       <c r="AA6" t="s">
-        <v>627</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>436</v>
       </c>
       <c r="AC6" t="s">
-        <v>436</v>
+        <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="AF6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3904,6 +4186,9 @@
       <c r="I7" t="s">
         <v>438</v>
       </c>
+      <c r="J7" t="s">
+        <v>586</v>
+      </c>
       <c r="K7" t="s">
         <v>345</v>
       </c>
@@ -3932,24 +4217,21 @@
         <v>354</v>
       </c>
       <c r="AA7" t="s">
-        <v>628</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>437</v>
       </c>
       <c r="AC7" t="s">
-        <v>437</v>
+        <v>178</v>
       </c>
       <c r="AD7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE7" t="s">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="AF7" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3997,24 +4279,21 @@
         <v>356</v>
       </c>
       <c r="AA8" t="s">
-        <v>629</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE8" t="s">
-        <v>186</v>
+        <v>421</v>
       </c>
       <c r="AF8" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG8" t="s">
         <v>564</v>
       </c>
     </row>
@@ -4059,18 +4338,15 @@
         <v>357</v>
       </c>
       <c r="AA9" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB9" t="s">
         <v>207</v>
       </c>
+      <c r="AC9" t="s">
+        <v>180</v>
+      </c>
       <c r="AD9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>565</v>
       </c>
     </row>
@@ -4106,18 +4382,15 @@
         <v>399</v>
       </c>
       <c r="AA10" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB10" t="s">
         <v>254</v>
       </c>
+      <c r="AC10" t="s">
+        <v>600</v>
+      </c>
       <c r="AD10" t="s">
-        <v>600</v>
-      </c>
-      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4126,7 +4399,7 @@
         <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
         <v>349</v>
@@ -4150,15 +4423,12 @@
         <v>622</v>
       </c>
       <c r="AA11" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4167,7 +4437,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>581</v>
       </c>
       <c r="H12" t="s">
         <v>271</v>
@@ -4191,15 +4461,12 @@
         <v>246</v>
       </c>
       <c r="AA12" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4208,7 +4475,7 @@
         <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
         <v>260</v>
@@ -4232,15 +4499,12 @@
         <v>247</v>
       </c>
       <c r="AA13" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4249,7 +4513,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="H14" t="s">
         <v>313</v>
@@ -4270,15 +4534,12 @@
         <v>592</v>
       </c>
       <c r="AA14" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>520</v>
       </c>
     </row>
@@ -4287,7 +4548,7 @@
         <v>543</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>261</v>
@@ -4308,15 +4569,12 @@
         <v>252</v>
       </c>
       <c r="AA15" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB15" t="s">
         <v>612</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4325,7 +4583,7 @@
         <v>505</v>
       </c>
       <c r="F16" t="s">
-        <v>378</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>262</v>
@@ -4346,15 +4604,12 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB16" t="s">
         <v>593</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -4363,7 +4618,7 @@
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H17" t="s">
         <v>314</v>
@@ -4378,15 +4633,12 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>493</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4395,7 +4647,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -4410,12 +4662,9 @@
         <v>250</v>
       </c>
       <c r="AA18" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>504</v>
       </c>
     </row>
@@ -4424,7 +4673,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>616</v>
+        <v>408</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4433,12 +4682,9 @@
         <v>449</v>
       </c>
       <c r="AA19" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB19" t="s">
         <v>530</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4447,7 +4693,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4456,12 +4702,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4470,7 +4713,7 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -4479,12 +4722,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4493,7 +4733,7 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>618</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4502,12 +4742,9 @@
         <v>585</v>
       </c>
       <c r="AA22" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4516,7 +4753,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4525,12 +4762,9 @@
         <v>499</v>
       </c>
       <c r="AA23" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>566</v>
       </c>
     </row>
@@ -4539,7 +4773,7 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4548,12 +4782,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB24" t="s">
         <v>511</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>567</v>
       </c>
     </row>
@@ -4562,7 +4793,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>619</v>
+        <v>253</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4571,12 +4802,9 @@
         <v>385</v>
       </c>
       <c r="AA25" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>568</v>
       </c>
     </row>
@@ -4585,7 +4813,7 @@
         <v>605</v>
       </c>
       <c r="F26" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -4594,21 +4822,18 @@
         <v>621</v>
       </c>
       <c r="AA26" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB26" t="s">
         <v>573</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>615</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>569</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -4617,21 +4842,18 @@
         <v>554</v>
       </c>
       <c r="AA27" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -4640,18 +4862,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -4660,18 +4879,15 @@
         <v>427</v>
       </c>
       <c r="AA29" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>442</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -4680,18 +4896,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>442</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4700,187 +4913,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>225</v>
-      </c>
       <c r="F33" t="s">
-        <v>497</v>
+        <v>224</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H34" t="s">
         <v>536</v>
       </c>
       <c r="AA34" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>409</v>
+        <v>498</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>409</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB36" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>570</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>620</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>620</v>
+      </c>
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4888,7 +5077,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4896,7 +5085,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4904,7 +5093,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4912,7 +5101,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4920,7 +5109,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4928,7 +5117,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>613</v>
       </c>
     </row>
@@ -4936,7 +5125,7 @@
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4944,7 +5133,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4952,7 +5141,7 @@
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>562</v>
       </c>
     </row>
@@ -4960,7 +5149,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4968,7 +5157,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4976,7 +5165,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4984,7 +5173,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4992,7 +5181,7 @@
       <c r="H59" t="s">
         <v>571</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5000,7 +5189,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5008,7 +5197,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5016,7 +5205,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5024,7 +5213,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5032,7 +5221,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5040,7 +5229,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5048,7 +5237,7 @@
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5056,7 +5245,7 @@
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5064,7 +5253,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5072,7 +5261,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5080,7 +5269,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5088,7 +5277,7 @@
       <c r="H71" t="s">
         <v>558</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5096,7 +5285,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5104,7 +5293,7 @@
       <c r="H73" t="s">
         <v>403</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5112,7 +5301,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5120,7 +5309,7 @@
       <c r="H75" t="s">
         <v>404</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5128,7 +5317,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5136,7 +5325,7 @@
       <c r="H77" t="s">
         <v>537</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5144,7 +5333,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5152,7 +5341,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>660</v>
       </c>
     </row>
@@ -5160,7 +5349,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5168,7 +5357,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5176,7 +5365,7 @@
       <c r="H82" t="s">
         <v>422</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5184,7 +5373,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5192,7 +5381,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5200,7 +5389,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5208,7 +5397,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5216,7 +5405,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5224,7 +5413,7 @@
       <c r="H88" t="s">
         <v>559</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5232,7 +5421,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5240,7 +5429,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5248,7 +5437,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5256,7 +5445,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>591</v>
       </c>
     </row>
@@ -5264,7 +5453,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5272,7 +5461,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5280,7 +5469,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5288,7 +5477,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5296,7 +5485,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>577</v>
       </c>
     </row>
@@ -5304,272 +5493,272 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>667</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="670">
   <si>
     <t>description</t>
   </si>
@@ -2089,7 +2089,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="97" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2493,8 +2493,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2511,6 +2725,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2967,7 +3453,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3210,55 +3696,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="66" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="69" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -31,12 +31,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5231" uniqueCount="674">
   <si>
     <t>description</t>
   </si>
@@ -2082,6 +2082,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2707,8 +2719,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="124">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2725,6 +2951,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3453,7 +3951,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3798,55 +4296,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="83" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="86" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="100" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4390,7 +4990,7 @@
         <v>508</v>
       </c>
       <c r="Q2" t="s">
-        <v>410</v>
+        <v>671</v>
       </c>
       <c r="R2" t="s">
         <v>423</v>
@@ -4484,6 +5084,9 @@
       <c r="P3" t="s">
         <v>509</v>
       </c>
+      <c r="Q3" t="s">
+        <v>672</v>
+      </c>
       <c r="R3" t="s">
         <v>424</v>
       </c>
@@ -4570,6 +5173,9 @@
       <c r="P4" t="s">
         <v>510</v>
       </c>
+      <c r="Q4" t="s">
+        <v>673</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -4781,7 +5387,7 @@
         <v>345</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>670</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -4843,7 +5449,7 @@
         <v>560</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4902,7 +5508,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>532</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4952,7 +5558,7 @@
         <v>601</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4996,7 +5602,7 @@
         <v>602</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>500</v>
@@ -5034,7 +5640,7 @@
         <v>445</v>
       </c>
       <c r="L12" t="s">
-        <v>533</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>561</v>
@@ -5072,7 +5678,7 @@
         <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>383</v>
+        <v>533</v>
       </c>
       <c r="N13" t="s">
         <v>429</v>
@@ -5110,7 +5716,7 @@
         <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="N14" t="s">
         <v>501</v>
@@ -5145,7 +5751,7 @@
         <v>321</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5180,7 +5786,7 @@
         <v>322</v>
       </c>
       <c r="L16" t="s">
-        <v>534</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>572</v>
@@ -5212,7 +5818,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5241,7 +5847,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5267,7 +5873,7 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s">
         <v>530</v>
@@ -5287,7 +5893,7 @@
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>449</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
@@ -5307,7 +5913,7 @@
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>
@@ -5327,7 +5933,7 @@
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>585</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>106</v>
@@ -5347,7 +5953,7 @@
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
       <c r="AA23" t="s">
         <v>107</v>
@@ -5367,7 +5973,7 @@
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>499</v>
       </c>
       <c r="AA24" t="s">
         <v>511</v>
@@ -5387,7 +5993,7 @@
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
@@ -5407,7 +6013,7 @@
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>621</v>
+        <v>385</v>
       </c>
       <c r="AA26" t="s">
         <v>573</v>
@@ -5427,7 +6033,7 @@
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="AA27" t="s">
         <v>109</v>
@@ -5447,7 +6053,7 @@
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>554</v>
       </c>
       <c r="AA28" t="s">
         <v>110</v>
@@ -5464,7 +6070,7 @@
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>427</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
         <v>111</v>
@@ -5481,7 +6087,7 @@
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="AA30" t="s">
         <v>112</v>
@@ -5498,7 +6104,7 @@
         <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>324</v>
@@ -5513,6 +6119,9 @@
       </c>
       <c r="H32" t="s">
         <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -36,12 +36,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5231" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="680">
   <si>
     <t>description</t>
   </si>
@@ -2094,6 +2094,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2933,8 +2951,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2951,6 +3076,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3951,7 +4212,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4398,55 +4659,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="144" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="117" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="159" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="174" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="186" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4990,7 +5302,7 @@
         <v>508</v>
       </c>
       <c r="Q2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="R2" t="s">
         <v>423</v>
@@ -5085,7 +5397,7 @@
         <v>509</v>
       </c>
       <c r="Q3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="R3" t="s">
         <v>424</v>
@@ -5174,7 +5486,7 @@
         <v>510</v>
       </c>
       <c r="Q4" t="s">
-        <v>673</v>
+        <v>410</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -5256,6 +5568,9 @@
       <c r="O5" t="s">
         <v>555</v>
       </c>
+      <c r="Q5" t="s">
+        <v>676</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -5690,7 +6005,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>247</v>
+        <v>677</v>
       </c>
       <c r="AA13" t="s">
         <v>323</v>
@@ -5725,7 +6040,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>592</v>
+        <v>247</v>
       </c>
       <c r="AA14" t="s">
         <v>102</v>
@@ -5760,7 +6075,7 @@
         <v>528</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>592</v>
       </c>
       <c r="AA15" t="s">
         <v>612</v>
@@ -5795,7 +6110,7 @@
         <v>529</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA16" t="s">
         <v>593</v>
@@ -5824,7 +6139,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
         <v>103</v>
@@ -5853,7 +6168,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -5875,6 +6190,9 @@
       <c r="L19" t="s">
         <v>82</v>
       </c>
+      <c r="S19" t="s">
+        <v>678</v>
+      </c>
       <c r="AA19" t="s">
         <v>530</v>
       </c>
@@ -5895,6 +6213,9 @@
       <c r="L20" t="s">
         <v>449</v>
       </c>
+      <c r="S20" t="s">
+        <v>250</v>
+      </c>
       <c r="AA20" t="s">
         <v>104</v>
       </c>
@@ -5914,6 +6235,9 @@
       </c>
       <c r="L21" t="s">
         <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>679</v>
       </c>
       <c r="AA21" t="s">
         <v>105</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -23,12 +23,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -49,15 +49,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="717">
   <si>
     <t>description</t>
   </si>
@@ -2112,6 +2114,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="165" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3058,8 +3171,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3076,6 +3296,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4212,7 +4568,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="193">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4759,6 +5115,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="201" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5143,7 +5550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5243,12 +5650,18 @@
         <v>56</v>
       </c>
       <c r="AD1" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>681</v>
+      </c>
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>407</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5341,12 +5754,18 @@
         <v>174</v>
       </c>
       <c r="AD2" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>425</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>519</v>
       </c>
     </row>
@@ -5433,12 +5852,18 @@
         <v>175</v>
       </c>
       <c r="AD3" t="s">
+        <v>707</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF3" t="s">
         <v>358</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5522,12 +5947,18 @@
         <v>176</v>
       </c>
       <c r="AD4" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>417</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5598,13 +6029,16 @@
       <c r="AC5" t="s">
         <v>599</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>418</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5669,13 +6103,16 @@
       <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>713</v>
+      </c>
+      <c r="AF6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>419</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5734,13 +6171,16 @@
       <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>714</v>
+      </c>
+      <c r="AF7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>420</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5758,7 +6198,7 @@
         <v>360</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>702</v>
       </c>
       <c r="K8" t="s">
         <v>560</v>
@@ -5796,13 +6236,16 @@
       <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>421</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>564</v>
       </c>
     </row>
@@ -5820,7 +6263,7 @@
         <v>361</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -5852,10 +6295,13 @@
       <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>565</v>
       </c>
     </row>
@@ -5870,7 +6316,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>601</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
         <v>532</v>
@@ -5896,10 +6342,10 @@
       <c r="AC10" t="s">
         <v>600</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5914,7 +6360,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
@@ -5934,10 +6380,10 @@
       <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5952,7 +6398,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>445</v>
+        <v>602</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -5972,10 +6418,10 @@
       <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5990,7 +6436,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="L13" t="s">
         <v>533</v>
@@ -6010,10 +6456,10 @@
       <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6028,7 +6474,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>383</v>
@@ -6045,10 +6491,10 @@
       <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6063,7 +6509,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -6080,10 +6526,10 @@
       <c r="AA15" t="s">
         <v>612</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6098,7 +6544,7 @@
         <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -6115,10 +6561,10 @@
       <c r="AA16" t="s">
         <v>593</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6132,6 +6578,9 @@
       <c r="H17" t="s">
         <v>314</v>
       </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
       <c r="L17" t="s">
         <v>534</v>
       </c>
@@ -6144,10 +6593,10 @@
       <c r="AA17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>493</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6161,6 +6610,9 @@
       <c r="H18" t="s">
         <v>89</v>
       </c>
+      <c r="I18" t="s">
+        <v>703</v>
+      </c>
       <c r="L18" t="s">
         <v>81</v>
       </c>
@@ -6173,7 +6625,7 @@
       <c r="AA18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6182,7 +6634,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>408</v>
+        <v>682</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -6196,7 +6648,7 @@
       <c r="AA19" t="s">
         <v>530</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6205,7 +6657,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -6219,7 +6671,7 @@
       <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6228,7 +6680,7 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>617</v>
+        <v>408</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -6242,7 +6694,7 @@
       <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6251,7 +6703,7 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -6262,7 +6714,7 @@
       <c r="AA22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6271,7 +6723,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>617</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -6282,7 +6734,7 @@
       <c r="AA23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>566</v>
       </c>
     </row>
@@ -6291,7 +6743,7 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>618</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -6302,7 +6754,7 @@
       <c r="AA24" t="s">
         <v>511</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>567</v>
       </c>
     </row>
@@ -6311,7 +6763,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -6322,7 +6774,7 @@
       <c r="AA25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>568</v>
       </c>
     </row>
@@ -6331,18 +6783,18 @@
         <v>605</v>
       </c>
       <c r="F26" t="s">
-        <v>619</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>684</v>
       </c>
       <c r="L26" t="s">
         <v>385</v>
       </c>
       <c r="AA26" t="s">
-        <v>573</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>704</v>
+      </c>
+      <c r="AH26" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6351,18 +6803,18 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>569</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>685</v>
       </c>
       <c r="L27" t="s">
         <v>621</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>573</v>
+      </c>
+      <c r="AH27" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6371,16 +6823,16 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>619</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
         <v>554</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -6388,898 +6840,959 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>569</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
         <v>85</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>680</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
         <v>427</v>
       </c>
       <c r="AA30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>681</v>
       </c>
       <c r="F31" t="s">
-        <v>442</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" t="s">
+        <v>442</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA34" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>497</v>
-      </c>
-      <c r="H34" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>498</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="AA35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>536</v>
       </c>
       <c r="AA36" t="s">
-        <v>574</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>498</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>409</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="AA38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AA40" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AA41" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="AA42" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>570</v>
+        <v>686</v>
       </c>
       <c r="AA43" t="s">
-        <v>583</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s">
-        <v>386</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>620</v>
       </c>
-      <c r="H45" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA47" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="AA48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="AA50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AA51" t="s">
-        <v>613</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
-        <v>211</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="AA53" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>350</v>
+        <v>687</v>
       </c>
       <c r="AA54" t="s">
-        <v>562</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>328</v>
+        <v>688</v>
       </c>
       <c r="AA55" t="s">
-        <v>126</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>265</v>
+        <v>689</v>
       </c>
       <c r="AA56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>289</v>
+        <v>690</v>
       </c>
       <c r="AA57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s">
-        <v>512</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>571</v>
+        <v>362</v>
       </c>
       <c r="AA59" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA60" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="AA61" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="AA62" t="s">
-        <v>489</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="AA63" t="s">
-        <v>130</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AA64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>307</v>
+        <v>571</v>
       </c>
       <c r="AA65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="AA66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>342</v>
+        <v>692</v>
       </c>
       <c r="AA68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>310</v>
+        <v>693</v>
       </c>
       <c r="AA69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="AA70" t="s">
-        <v>432</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>558</v>
+        <v>694</v>
       </c>
       <c r="AA71" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>311</v>
+        <v>695</v>
       </c>
       <c r="AA72" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="AA73" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AA74" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="AA75" t="s">
-        <v>137</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>259</v>
+        <v>363</v>
       </c>
       <c r="AA76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>537</v>
+        <v>364</v>
       </c>
       <c r="AA77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AA79" t="s">
-        <v>660</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AA80" t="s">
-        <v>195</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>288</v>
+        <v>558</v>
       </c>
       <c r="AA81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="AA82" t="s">
-        <v>447</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="AA83" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>267</v>
+        <v>696</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>278</v>
+        <v>697</v>
       </c>
       <c r="AA85" t="s">
-        <v>142</v>
+        <v>705</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>273</v>
+        <v>537</v>
       </c>
       <c r="AA87" t="s">
-        <v>524</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>559</v>
+        <v>341</v>
       </c>
       <c r="AA88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AA89" t="s">
-        <v>145</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>285</v>
+        <v>698</v>
       </c>
       <c r="AA90" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>269</v>
+        <v>699</v>
       </c>
       <c r="AA91" t="s">
-        <v>513</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AA92" t="s">
-        <v>591</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>302</v>
+        <v>422</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>513</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="AA94" t="s">
-        <v>446</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AA95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="AA96" t="s">
-        <v>200</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA97" t="s">
-        <v>577</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>661</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>662</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>541</v>
+        <v>661</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>147</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>376</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>595</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>596</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>153</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>597</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>614</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>575</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>663</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>598</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>166</v>
+        <v>663</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>167</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>664</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>665</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>667</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_IterationDataTests.xlsx
@@ -24,42 +24,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7264" uniqueCount="803">
   <si>
     <t>description</t>
   </si>
@@ -2225,6 +2228,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2493,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="165" x14ac:knownFonts="1">
+  <fonts count="182" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3278,8 +3539,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      